--- a/deuChatbot/research_result/table_to_json(2000_0).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_0).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
       <selection activeCell="B304" sqref="B304"/>
@@ -27691,6 +27691,6812 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 세부사항(모집단위, 실기종목, 준비물, 주제, 화지크기, 시험시간 등)을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련이 있으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.8113797269771188</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 선택하여 준비해야 합니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제입니다.
+     - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지3절을 사용합니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제입니다.
+     - **주제A**: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - **주제B**: 바이러스, 자유, 여행, 계절, 꿈
+   - **화지크기**: 켄트지2절을 사용합니다.
+   - **시간**: 5시간 동안 진행됩니다.
+실기시험은 각 분야별로 주어진 주제를 기반으로 창의적인 디자인을 표현해야 합니다. 준비물과 시간을 잘 관리하며, 주어진 주제와 제공된 사물을 적절히 활용하여 창조적인 작품을 제출하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 정확하게 전달되었습니다. 그러나 "시간은 구체적으로 제공되지 않았습니다."라는 문장은 원본 텍스트에서 제공된 시간 정보와 상충하므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대부분 일관되게 전달하고 있지만, "시간은 구체적으로 제공되지 않았습니다."라는 부분이 원본 텍스트의 시간 정보와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 모두 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "시간은 구체적으로 제공되지 않았습니다."라는 문장이 전체적인 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 시간에 대한 정보의 부정확성으로 인해 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 문장에서 약간의 의미의 왜곡이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8122468053435324</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환'입니다.
+- **기초디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+    - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+    - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+    - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+  - **화지크기**: 켄트지2절
+  - **시간**: 시간은 구체적으로 제공되지 않았습니다.
+위 정보를 참고하여 준비하시면 좋을 것 같습니다. 더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do로 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구 종목에 대한 인정 대회 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않고 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 경기지도학과의 인정 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 종목에 대한 대회 목록이 명확하게 제시되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.9168825566237042</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "경기지도학과 모집종목별 인정대회"에는 배드민턴(남)과 축구(남) 종목이 있습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 잘 반영하고 있지만, 추가적인 세부사항(사물의 형상 표현 및 색상 변경 금지)에 대한 언급이 있어 약간의 차이가 있습니다. 그러나 기본적인 정보는 정확합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 주제와 추첨 방식에 대한 설명이 일치합니다. 다만, 추가된 세부사항이 원본에 포함되어 있지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 잘 연결되어 있습니다. 그러나 추가된 세부사항이 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않아 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 세부사항이 원본의 의도와 약간 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.9067038811992948</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 주제A와 주제B 각각에서 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+이 주제들은 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 제공된 사물의 색상은 변경하지 말아야 합니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 생성된 응답에서는 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 특정 학과의 출결 점수 반영에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 적습니다. 원문은 학생부 교과 전형에 대한 질문이므로, 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어지기 때문에 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받고 있어 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.5696381676400658</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과 나군 실기/실적(경기실적우수자전형)에서는 출결이 서류 성적으로 반영됩니다. 출결 점수는 다음과 같이 반영됩니다:
+- 결석일수가 0~2일인 경우: 120점
+- 결석일수가 3~6일인 경우: 90점
+- 결석일수가 7~12일인 경우: 60점
+- 결석일수가 13~20일인 경우: 30점
+- 결석일수가 21일 이상인 경우: 0점
+따라서 출결 점수는 서류 성적 중 하나로 반영되며, 이 점수는 학생부교과 전형에서 경기지도학과에 지원하는 학생들의 경쟁력을 결정하는데 중요한 요소가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원 수와 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.9740829156607574</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원 수와 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.8744401652517949</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 모집 인원에 대한 정보가 정확하게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수에 대한 정보를 제공하지 않고, 특정 학과의 평균 등급과 점수에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 관련성이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 수능 영어 등급에 따른 점수에 대한 정보만을 제공하는 반면, 생성된 응답은 특정 학과의 평균 등급과 점수에 대한 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 수능 영어 등급에 따른 점수에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 수능 영어 등급에 대한 점수 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 반영하지 않기 때문입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 완전히 다릅니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.6744998249191556</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 평균 등급이 4.53인 'ICT융합공과대학 인공지능학과'의 경우, 평균 점수가 4.53입니다.
+- 평균 등급이 4.55인 'ICT융합공과대학 전기공학과, 전자공학과'의 경우, 평균 점수가 4.55입니다.
+- 평균 등급이 3.00인 'ICT융합공과대학 디지털콘텐츠학과'의 경우, 평균 점수가 3.00입니다.
+등급별로 정확한 점수를 제공하기 위해서는 해당 등급에 대한 변환표가 필요합니다. 일반적으로 영어 등급은 다음과 같은 방식으로 변환됩니다:
+- A+ : 5.0
+- A : 4.9
+- A- : 4.8
+- B+ : 4.7
+- B : 4.6
+- B- : 4.5
+- C+ : 4.4
+- C : 4.3
+- C- : 4.2
+- D+ : 4.1
+- D : 4.0
+- F : 3.9
+위의 예시에서 'ICT융합공과대학 인공지능학과'의 평균 등급이 3.77이므로, 이는 B-에 해당합니다 (4.5 ~ 4.6 사이). 따라서, 실제 점수 변환표를 확인해야 정확한 점수를 제공할 수 있습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 이동하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고)"라는 표현은 다소 혼란을 줄 수 있으며, 예술고 학생이 지원할 수 있는 전형에 대한 정보가 추가되어 있지만, 원문에서 명시된 지원 자격에 대한 정확한 설명이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 예술고 학생이 지원할 수 있는 다른 전형에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있으나, 생성된 응답은 다른 전형에 대한 정보를 포함하여 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 자격에 대한 정보를 잘 설명하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 예술고 학생이 지원할 수 있는 전형에 대한 언급이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생의 지원 자격에 대한 정확한 정보를 제공하고 있지만, 원문에서 명시된 내용을 완전히 반영하지 못한 부분이 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 혼란스러운 부분이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 추가된 정보가 원문의 맥락과 완전히 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7199446885107433</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 이 전형의 지원 자격 중 하나로 '일반고, 자율고, 특수목적고(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고)' 외에 다른 고교 유형을 포함하고 있습니다. 그러나 예술고 학생은 예술 관련 전공으로 지원할 수 있는 전형이 있으므로 해당 전형을 확인해보시는 것이 좋습니다.
+추가적으로, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하려면 일반고나 자율고 등에 재학 중이어야 합니다. 따라서 현재 예술고에서 재학 중인 경우에는 해당 전형으로 지원할 수 없습니다.
+자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 4등급 기록을 220cm 이상으로 잘못 제시하고 있으며, 배점도 300점으로 잘못 기재되어 있습니다. 원본 텍스트에 따르면 4등급 기록은 218~221 cm이고 배점은 275점입니다. 따라서 여러 가지 사실이 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점 모두 원본과 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 잘못된 정보로 인해 신뢰성이 떨어집니다. 그러나 주제에 대한 언급은 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 기록과 배점 모두 잘못 기재되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮고 일관성도 결여되어 있습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 주제와 관련이 있지만, 잘못된 정보로 인해 적절성이 떨어집니다. 주제에 대한 언급은 적절하나, 사실이 틀리기 때문에 의미 전달이 왜곡됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.8699382982972337</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기의 4등급 기록은 220cm 이상이며, 이 기록에 대한 배점은 300점입니다.
+이 정보는 다음과 같이 요약됩니다:
+- 등급: 4
+- 기록(여자): 220cm 이상
+- 배점: 300점
+위의 기록과 배점을 참고하시면 됩니다. 자세한 내용은 공식 홈페이지나 입학관리팀에서 확인해보시는 것이 좋습니다. 필요하시다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명확히 언급하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 다른 학과의 정보와 관련된 내용을 언급하고 있습니다. 그러나 원본 텍스트의 핵심 주제와는 관련이 적습니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 점수를 약간 낮추었습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 12%라는 구체적인 수치를 무시하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 정보를 포함하고 있습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.6110663175133002</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 경기지도학과의 출결 반영 비율에 대한 직접적인 데이터가 없습니다. 다른 학과들에서는 결석일수와 반영점수 간의 관계를 제시하고 있지만, 경기지도학과의 경우 특정한 정보가 누락되어 있습니다.
+만약 동의대학교 경기지도학과에서 출결이 합격 점수에 영향을 미치는지 알고 싶다면, 대학 홈페이지나 입학처에 직접 문의하시거나, 제공된 기타사항 중에서 비슷한 학과들의 정보를 참고해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.4951413874007671</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 일치하지 않으며, 응용화학과에 대한 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 다른 전형 유형이나 학과에서 수능 최저기준이 제시될 수 있다는 언급은 사실이지만, 응용화학과에 대한 정보가 불확실하다는 점에서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 응용화학과에 대한 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 정보를 제공하고 있으며, 관련 웹사이트를 안내하는 등 유용한 정보를 포함하고 있습니다. 따라서 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 원문에서 명시된 사실을 정확히 반영하지 않으며, 응용화학과에 대한 수능 최저기준이 없다는 점을 명확히 하지 않고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균 이하입니다. 사실성과 일관성에서 부족함이 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원문과의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4848253967784202</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보가 제공된 범위 내에서는 확인할 수 없습니다. 다른 전형 유형이나 학과에서 수능 최저기준이 제시되어 있지만, 응용화학과에 대한 명확한 수능 최저기준은 포함되어 있지 않습니다.
+더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 공식 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 잘못 제시하고 있으며, 원본 텍스트에 포함된 학과와는 전혀 다른 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 학과에 대한 정보를 제공하고 있지만, 원본 텍스트와 관련이 없는 학과들에 대한 설명이 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 일부 문장이 복잡하고 불필요한 정보가 포함되어 있어 유창성이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 학과에 대한 설명이 포함되어 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 전체적으로 원본 텍스트의 맥락과 맞지 않는 정보가 많아 의미 적합성이 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 어느 정도 이해할 수 있지만, 정보의 혼란으로 인해 명확성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6353599181698915</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과는 다음과 같습니다.
+1. 아동학과 (전从前的数据来看，2023年是“保育·가정상담학과”，而2024年变更为“아동학과”)
+2. 금융경영학과 (从2023年的“经济金融保险学和”到2024年的“金融经营学”)
+3. 경영정보학과와 e비즈니스학과 (2023年的信息经营学部拆分为2024年的“经营管理信息学系”和“电子商务学系”)
+4. 부동산투자학과와 부동산개발경영학과 (从2023年的“房地产金融与资产经营学”到2024年的“房地产投资学”和“房地产开发经营学”)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (从2023年的“机械汽车机器人零部件工程学部”拆分为2024年的“机械工程系”，“机器人自动化工程系”，“汽车工程系”)
+6. 신소재공학과와 고분자나노공학과 (从2023年的“新材料科学与工程学部”拆分为2024年的“新材料科学与工程系”和“高分子纳米科学与工程系”)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (从2023年的“建筑学部”拆分为2024年的“建筑学（五年制）”，“建筑工程学系”，“土木工程学系”，“城市规划与设计学系”)
+8. 화학공학과, 환경공학과, 응용화학과 (从2023年的“化学环境科学部”拆分为2024年的“化学工程学系”，“环境工程学系”，“应用化学学系”)
+이러한 학과 분리와 명칭 변경은 2024년 동의대학교에서 이루어진 주요 변화 중 하나입니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형요소 반영비율에 대한 정보를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 관련된 정보(공식 웹사이트 링크)를 포함하고 있습니다. 그러나 주된 질문에 대한 답변이 없기 때문에 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 부재로 인해 내용의 유용성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 정보의 부재로 인해 질문에 대한 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6806489615364509</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보는 제공된 자료에서 확인할 수 없습니다. 추가적인 정보나 자세한 내용은 공식 웹사이트를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 기술하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학이 언급되었으나, 생성된 응답에서는 한의과대학 한의예과를 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 모집단위와 생성된 응답의 학과가 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 원본 텍스트의 모집단위와는 다른 학과에 대한 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 원본 텍스트의 구조와 일치하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보를 포함하고 있습니다. 한의과대학 한의예과에 대한 언급은 원본 텍스트에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.788654719054554</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과로는 "한의과대학 한의예과(수학&lt;확률과통계&gt;)"가 있습니다. 이 학과에서는 수학 영역에 가산점이 적용됩니다.
+다음은 해당 정보를 요약한 것입니다:
+- **단과대학**: 한의과대학
+- **2024학년도 모집단위**: 한의예과(수학&lt;확률과통계&gt;)
+- **특징**: 수능 4개 영역 등급 및 가산점 포함 표준 변환 점수 합 평균이 다른 학과보다 낮으며, 이는 수학 영역에 가산점이 적용되었음을 의미합니다.
+만약 추가 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 2024학년도 가군 수능 성적 반영 방법에 대한 정확한 정보를 제공하지 않고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 학생부종합전형에 대한 내용을 포함하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일치하지 않으며, 서로 다른 전형에 대한 정보를 혼합하고 있습니다. 이는 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 주제와 관련 없는 세부 정보가 많아 relevance가 낮습니다. 원문에서 요구하는 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다. 수능 성적 반영 방법에 대한 정확한 설명이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 사실성, 일관성, 관련성, 정확성 모두 낮은 점수를 받았기 때문에 전체적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 일부 적절한 부분이 있지만, 전체적인 맥락에서 벗어난 정보가 많아 적절성이 떨어집니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이지만, 내용의 정확성과 관련성이 부족하여 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6850055983170311</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 학생부종합전형에 다음과 같이 반영됩니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 396.29
+   - 표준 편차: 0.68
+2. **영어 등급**:
+   - 평균: 1.00
+   - 표준 편차: 0.00 (이 값은 영어 등급의 일관성을 나타내는 것으로, 모든 지원자가 동일한 수준을 가지고 있다는 의미입니다.)
+3. **수능 4개 영역 등급**:
+   - 평균: 1.20
+   - 표준 편차: 0.05
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 평균: 535.29
+   - 표준 편차: 0.68
+이러한 수능 성적은 서류평가의 일환으로서 지원자의 학업역량을 판단하는 데 중요한 역할을 합니다. 특히, **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**과 **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**은 지원자의 학업 역량을 평가하는 데 중요한 기준이 됩니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사의 날짜를 정확하게 언급하고 있으며, 추가적으로 레저스포츠학과와 태권도학과에서 실시된다고 설명하고 있습니다. 그러나 원본 텍스트에는 학과에 대한 정보가 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 볼 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 날짜를 언급하고 있으며, 추가적인 학과 정보도 제공하고 있습니다. 그러나 원본 텍스트에 없는 정보가 포함되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 날짜와 관련된 정보를 제공하고 있습니다. 추가적인 웹사이트 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 관련된 정보는 정확하지만, 학과에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 학과 정보가 원본 텍스트의 의미와 다소 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.7086690088041671</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024. 01. 16.(화)입니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서 제외된 모집단위에 대한 명확한 정보를 제공하지 않고 있으며, 오히려 "제공된 정보에서 명확히 확인할 수 있는 모집단위 제외 사항이 없습니다."라는 잘못된 주장을 하고 있습니다. 원본 텍스트에 명시된 모집단위가 제외된다는 사실을 완전히 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 언급된 모집단위가 제외된다는 사실과 상충하는 내용을 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 일부 관련 정보를 제공하지만, 원본 텍스트의 핵심 내용인 특정 모집단위의 제외에 대한 정보가 부족합니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 유지하고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 의미적으로 적절하지 않은 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 부정확성과 관련성 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.5843102250564954</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 특정 모집단위가 제외되었습니다. 그러나 제공된 정보에서 명확히 확인할 수 있는 모집단위 제외 사항이 없습니다.
+제공된 정보는 다음과 같습니다:
+- 인문사회과학대학, 상경대학의 모든 모집단위
+- 공과대학의 응용화학과, 의생명공학과, 식품공학과, 산업경영빅데이터공학과
+- ICT융합공과대학 소프트웨어공학부(컴퓨터소프트웨어공학  - 공학, 응용소프트웨어공학)
+특정 모집단위가 제외된 사항이 없다면, 동의대학교에서 변경사항을 확인하기 위해 공식 웹사이트를 참조하거나 관련 부서에 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트로 이동할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일치하는 내용을 포함하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 정확히 전달하고 있습니다. 그러나 "수능 위주" 또는 특정 학과에서만 수능 최저기준이 설정되어 있다는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 반복하고 있습니다. 그러나 추가된 정보가 원문과의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확히 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 추가된 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가된 정보가 원문에 명시되지 않은 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 추가로 인해 약간의 부정확성과 일관성 문제가 발생합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 추가된 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.7722163085686746</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. "수능 위주" 또는 특정 학과에서만 수능 최저기준이 설정되어 있으며, 다군 전형은 수능을 100% 반영하는 형태로 진행됩니다.
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 더 자세한 정보는 공식 홈페이지를 참조하시거나 https://ipsi.deu.ac.kr/main.do 링크에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"가 "아동학과"로 분리되었다고 정확하게 언급하고 있습니다. 그러나 원본 텍스트에 나열된 다른 학과 분리 정보는 포함되어 있지 않아 전체적인 사실성을 완벽하게 반영하지는 못합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 전체적인 맥락에서 다른 학과 분리 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 학과 분리에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 설명을 제공합니다. 그러나 추가적인 학과 분리 정보가 없어서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 특정 학과의 분리에 대한 정확한 정보를 제공하지만, 원본 텍스트의 모든 세부 사항을 포함하지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 원본 텍스트의 모든 정보를 포함하지 않아 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 다른 학과 분리에 대한 정보가 누락되어 있어 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었으나, 추가적인 정보가 없어서 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.5561951123298793</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 분리되었습니다.
+이 정보는 주요 변경사항 중 하나로, 학과 분리(학부→학과)에 해당합니다. 이와 관련하여 더 궁금한 점이 있다면 추가 질문 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 평가: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있습니다. 그러나 "원서접수는 인터넷을 통해 가능합니다"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 사실성을 약간 저하시킵니다.
+   - 점수: 4
+2. Consistency Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트의 정보와 일치하며, 추가적인 정보가 포함되어 있지만 원본의 핵심 내용과 모순되지 않습니다.
+   - 점수: 5
+3. Relevance Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다. 추가 정보도 관련성이 있습니다.
+   - 점수: 5
+4. Fluency Score (1-5):
+   - 평가: 생성된 응답은 문법적으로 올바르며, 자연스럽고 읽기 쉽게 작성되었습니다.
+   - 점수: 5
+5. Coherence Score (1-5):
+   - 평가: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+   - 점수: 5
+6. Accuracy Score (1-5):
+   - 평가: 원본 텍스트의 정보는 정확하게 반영되었으며, 추가된 정보도 일반적으로 사실에 부합합니다. 그러나 원본에 없는 정보가 포함되어 있어 완전한 정확성은 다소 떨어집니다.
+   - 점수: 4
+7. Multidimensional Quality Score (1-5):
+   - 평가: 생성된 응답은 여러 차원에서 높은 품질을 보여주며, 전반적으로 잘 작성되었습니다. 그러나 사실성에서 약간의 저하가 있어 점수를 조정합니다.
+   - 점수: 4
+8. Semantic Appropriateness Score (1-5):
+   - 평가: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가 정보도 의미적으로 적절합니다.
+   - 점수: 5
+9. Understandability Score (1-5):
+   - 평가: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+   - 점수: 5
+{
+    "Factuality Score": 4,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.7511084995471418</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 오후 18시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 정보는 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 정보가 아닌 학과 명칭 변경에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 모든 평가 기준에서 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.6382490179475557</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **아동학과** - 보육·가정상담학과로 변경되었습니다.
+2. **금융경영학과** - 경제금융보험학과로 변경되었습니다.
+3. **경영정보학과, e비즈니스학과** - 정보경영학부(경영정보학, e비즈니스학)에서 분리되었습니다.
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** - 부동산금융·자산경영학과로 변경되었습니다.
+5. **기계공학과, 로봇자동화공학과, 자동차공학과** - 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학)에서 분리되었습니다.
+6. **신소재공학과, 고분자나노공학과** - 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학)에서 분리되었습니다.
+7. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과** - 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학)에서 분리되었습니다.
+8. **화학공학과, 환경공학과, 응용화학과** - 화학환경공학부(화학공학, 환경공학, 응용화학)에서 분리되었습니다.
+이러한 변화는 학과의 구조와 명칭을 개선하여 전반적인 교육 품질을 높이기 위한 조치입니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기 비중이 70%라는 사실을 완전히 반박하고 있으며, 실기가 비중을 차지하지 않는다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 실기 비중에 대한 질문에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 응답의 의미가 원본 텍스트의 맥락과 완전히 어긋나 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6786884196954379</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 비중을 차지하지 않습니다. 가군 수능(일반학생전형)에서는 수능만이 전형 요소로 반영되며, 실기는 포함되어 있지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 관련된 설명이 추가되어도 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8273640566528347</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 '라이프융합학부'는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 세부 전공들은 라이프융합학부의 핵심 분야를 반영하며, 다양한 삶의 질 향상을 위한 교육을 제공할 예정입니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 경기지도학과와 인문사회과학대학의 일부 학과들이 언급되어 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원문에서 언급된 학과와 생성된 응답에서 언급된 학과가 서로 다릅니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 실기고사와 관련된 내용을 포함하고 있지만, 원문에서 요구하는 특정 학과에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수는 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 그러나 각 문장 간의 연결은 비교적 잘 되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 따라서 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 일부 적절한 내용을 포함하고 있지만, 원문과의 관련성이 떨어져 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 떨어져 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.5053421929933487</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서 실기고사를 치르는 학과는 경기지도학과와 인문사회과학대학의 일부 학과들입니다. 특히, 경기지도학과에서는 배드민턴(남)과 축구(남) 종목에 대해 실기고사를 치릅니다.
+경기지도학과에서 인정하는 대회는 다음과 같습니다:
+- 배드민턴: 한국중·고연맹회장기전국학생선수권대회, 대한배드민턴협회장기전국종별배드민턴선수권대회, 전국학교대항배드민턴선수권대회, 전국종별배드민턴선수권대회, 전국연맹종별배드민턴선수권대회, 전국체육대회, 각종국제대회, 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정), 광역시·도 협회장기 종별대회
+- 축구:춘계한국고등학교축구연맹전, 추계한국고등학교축구연맹전, 대한축구협회장배전국고등학교축구대회, 문화체육관광부장관기전국고등학교축구대회, 문화체육관광부장관배전국고등학교축구대회, 백운기전국고등학교축구대회, 전국고등축구리그(권역별고교축구리그), 전국고등축구리그왕중왕전, 무학기전국고등학교축구대회, 청룡기전국고등학교축구대회, 백록기전국고등학교축구대회, 금강대기전국고등학교축구대회, 대통령금배전국고등학교축구대회, 금석배전국고등학생축구대회, 부산MBC전국고등학생축구대회, K리그 U18 챔피언십, K리그 U18 챔피언십왕중왕전
+이러한 대회의 경기실적을 기반으로 서류심사를 진행하며, 실기고사의 성적이 학생부교과(70%), 출결(12%), 서류(경기실적)(18%)에 따라 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 레저스포츠학과와 태권도학과를 제외한 모든 학과에 지원할 수 있다고 언급하고 있지만, 원본 텍스트에서는 이 두 학과가 실기/실적 위주 전형에 포함된다고 명시되어 있습니다. 따라서 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 특정 학과들이 지원 가능하다고 명시하고 있지만, 생성된 응답은 이들 학과를 제외한다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 대한 정보를 제공하고 있으나, 일부 잘못된 정보가 포함되어 있어 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.6861133526911233</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '가군 실기/실적(일반학생전형)'은 레저스포츠학과와 태권도학과를 제외한 모든 학과에 지원할 수 있습니다. 또한, 디자인조형학과, 체육학과, 경기지도학과는 '나군 실기/실적(일반학생전형)'에서 해당됩니다.
+따라서, 실기/실적 위주 전형인 학과들은 다음과 같습니다:
+- 레저스포츠학과 (제외)
+- 태권도학과 (제외)
+- 디자인조형학과
+- 체육학과
+- 경기지도학과
+이러한 정보를 바탕으로 지원할 학과를 선택하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "2024년도 신설"이라는 표현은 원문에 명시되어 있지 않으며, "제공할 예정입니다"라는 표현은 다소 불확실성을 내포하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 전공 목록을 제공하지만, "제공할 예정입니다"라는 표현은 원문에서의 확정적인 정보와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 전공 목록과 학부의 목적에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 학부의 목표가 자연스럽게 연결되어 있습니다. 그러나 "제공할 예정입니다"라는 표현이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "제공할 예정입니다"라는 표현은 원문에서의 확정적인 정보와는 다소 차이가 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, "제공할 예정입니다"라는 표현이 다소 불확실성을 내포하고 있어 의미적으로 완벽하게 적합하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 다소 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.8325329148426672</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공할 예정입니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 학부는 이 세 가지 전공을 통해 다양한 삶의 질 향상과 사회적 가치 창출에 기여하는 인재를 양성할 계획입니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 지원 자격에 대한 정보가 일치합니다. 추가적인 정보도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "동의대학교 일반학생전형으로 지원이 가능합니다" 부분은 더 자연스럽게 표현될 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.7009907234459036</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동义大学的一般学生入学类型。
+특수목적 고등학교 학생인 경우 동의대학교 일반학생전형으로 지원이 가능합니다. 지원 자격에 대해 상세히 알고 싶으시다면, 제공된 정보를 참고해보세요. 특수목적고는 지원이 가능하다고 나와 있습니다.
+만약 더 구체적인 조건이나 기타 궁금한 점이 있다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보시거나, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보와 추측이 포함되어 있습니다. 원본 텍스트에서 언급된 학과와 모집 인원에 대한 정보가 정확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 서로 다른 학과와 모집 인원에 대한 정보를 제공하고 있습니다. 원본 텍스트의 핵심 내용을 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 내용을 포함하고 있지만, 주제에서 벗어난 정보가 많아 관련성이 낮습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 학과에 대한 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 정확한 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 매우 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많습니다. 일부 내용은 관련이 있지만, 전체적으로는 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 이해하기 어려운 부분이 있습니다. 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.6392888971718462</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 바로 알 수는 없지만, 제공된 정보만으로 판단해보면:
+- **상경대학 인문사회 계열**: 유통물류학과 (최대선발 가능인원: 4 이내), 경영학과 - 교직 (최대선발 가능인원: 6 이내), 회계학과 - 교직 (최대선발 가능인원: 3 이내), 국제관광경영학과 - 교직 (최대선발 가능인원: 4 이내)
+- **공과대학 공학 계열**: 기계공학과 - 교직 (최대선발 가능인원: 5 이내), 자동차공학과 (최대선발 가능인원: 3 이내), 조선해양공학과 (최대선발 가능인원: 4 이내), 신소재공학과 (최대선발 가능인원: 4 이내), 고분자나노공학과 (최대선발 가능인원: 3 이내), 토목공학과 (최대선발 가능인원: 4 이내), 바이오의약공학과 (최대선발 가능인원: 4 이내), 인간공학과 (최대선발 가능인원: 3 이내)
+- **ICT융합공과대학 공학 계열**: 컴퓨터공학과 - 교직 (최대선발 가능인원: 3 이내), 인공지능학과 (최대선발 가능인원: 4 이내), 디지털콘텐츠학과 (최대선발 가능인원: 1 이내), 게임공학과 (최대선발 가능인원: 3 이내)
+- **미래융합대학 인문사회 계열**: 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) (모집인원: 11)
+위에서 가장 많은 모집인원을 가진 학과는 **상경대학 경영학과 - 교직**로 보입니다. 하지만 이 정보만으로 정확히 판단하기에는 부족할 수 있으므로, 최종적인 결과를 확인하려면 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 완벽한 점수를 주기에는 부족합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변이 일관되게 이어집니다. 그러나 사실 오류로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 의미를 전달하고 있으나, 사실과 반대되는 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5846765998091528</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교의 학생부교과 농어촌학생전형으로 지원 가능합니다. 하지만 자격 요건 등을 확인하시기 바랍니다. 자세한 내용은 https://ipsi.deu.ac.kr/main.do를 참조해보시거나, 대학 입학처에 문의하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 부적절하여 전체적인 일관성은 떨어집니다. 성적 정보를 나열하는 방식은 논리적이지만, 원본과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 성적 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본에서 정보가 없다고 명시했음에도 불구하고, 구체적인 성적 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.6094012714733181</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.44
+- 영어 등급의 평균: 4.18
+- 수능 4개 영역 등급의 평균: 5.27
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 399.96
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하지 않으며, 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 그러나 "소프트웨어융합학과"라는 표현이 "소프트웨어공학부"와 다르기 때문에 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관성을 유지하려고 하지만, "소프트웨어융합학과"라는 다른 학과명을 사용함으로써 일관성이 떨어집니다. 원본 텍스트의 학과명과 다르기 때문에 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 평균 성적에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 또한 추가적인 정보 제공을 위한 웹사이트 링크를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "deu"와 "ac" 사이에 불필요한 공백이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있지만, 학과명이 다르기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 학과명이 다르기 때문에 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 학과명 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.7023078610761355</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 최초 합격자의 평균 성적 정보가 제공된 데이터 내에서는 확인할 수 없습니다. 소프트웨어융합학과에 대한 자세한 정보는 "https://ipsi. deu. ac. kr" 웹사이트를 참조해보시거나, 동의대학교 입학처에 문의하시면 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 충원 합격자 등록에 대한 세부 사항이 추가되어 있습니다. 원본 텍스트에는 이러한 정보가 포함되어 있지 않으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용으로 인해 일관성이 떨어집니다. 특히 최초 합격자 등록과 충원 합격자 등록에 대한 정보는 원본 텍스트와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으나, 추가된 등록 정보가 원본 텍스트의 주제와 완전히 일치하지는 않습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 일관성 부족으로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 유창성과 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.8114096867743285</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다.
+1. **최초 합격자 발표 및 등록**: 
+   - 날짜: 2024년 2월 2일(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. **최초 합격자 등록**: 
+   - 날짜: 2024년 2월 7일(수) ~ 2월 13일(화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. **충원 합격자 발표 및 등록**: 
+   - 첫 번째 충원 합격자 발표:
+     - 날짜: 2024년 2월 14일(수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 첫 번째 충원 합격자 등록:
+     - 날짜: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - 두 번째 충원 합격자 발표:
+     - 날짜: 2024년 2월 15일(목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보를 제공하지 않고, 실기고사에 대한 정보만 언급하고 있습니다. 원본 텍스트에서 명시된 면접고사 일정(2024. 01. 20.)이 전혀 언급되지 않아 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접고사에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 실기고사에 대한 정보는 질문과 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 면접고사 일정에 대한 정보가 누락되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.434543441549912</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>5시간의 실기고사에 대한 정보는 주어졌으나, 면접고사的具体翻译如下：
+关于面试考试何时去参加的问题，根据提供的信息，5小时的技能测试时间已经给出，但面试考试的时间没有提及。通常，面试考试会在申请被接受后安排进行。建议您查看具体的招生简章或联系相关部门以获取准确的面试日期和时间。
+如需更多信息，请访问以下网址：https://ipsi.deu.ac.kr/main.do
+这样可以获取最新的招生信息和具体安排。</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 "한의예과의 최저학력기준을 찾을 수 없다"라고 언급하고 있지만, 원문에서는 "최저학력 기준이 없다"라고 명확히 언급하고 있습니다. 따라서 사실적으로는 일치하지 않지만, 정보의 부재를 언급하고 있어 부분적으로 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, "추가 정보가 필요하다"는 문구는 원문에서 제공된 정보와 모순됩니다. 원문은 명확히 기준이 없다고 하였으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 요청하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에서"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 다소 다르게 해석하고 있습니다. "최저학력 기준이 없다"는 명확한 사실을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 원문에서의 명확한 사실을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6253771723097225</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준을 찾을 수 없습니다. 추가 정보가 필요합니다. 더 자세한 내용을 확인하려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 사실적으로 정확하며, 동의대학교의 수능 최저학력 기준에 대한 정보를 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.5972124931503884</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도 정시에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히 "수능 위주" 전형들에서는 학생부 교과 등의 요소가 반영되지 않고, 수능 점수가 유일한 평가 기준입니다. 예를 들어:
+- 가군 수능(일반학생전형) 
+- 나군 수능(일반학생전형)
+- 다군 수능(일반학생전형)
+이들 전형에서는 학생부 교과, 출결, 서류, 면접 등의 요소가 반영되지 않고, 수능 점수가 유일한 평가 기준입니다. 따라서 이러한 전형에서 수능 최저학력 기준이 없음을 확인할 수 있습니다.
+만약 특정 전형에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일(목) 09:00에 대한 정보를 포함하고 있지만, 1차 및 3차 이후 발표 일정에 대한 정보는 누락되어 있습니다. 따라서 부분적으로 정확하지만 완전하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정과 일치하지만, 전체 발표 일정에 대한 정보가 부족하여 일관성이 떨어집니다. 전체적인 맥락에서 보면 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 전체 발표 일정에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 2차 발표 일정에 대한 정확한 정보를 제공하지만, 다른 발표 일정에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.7641634274741019</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00에 충원 합격자 발표가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원 합격자 발표와 2차 충원 합격자 발표에 대한 정보를 정확하게 포함하고 있지만, 1차 충원 합격자 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 3차 이후 충원 합격자 발표에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 1차 충원 합격자 등록에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 또한, 3차 이후 발표 일정이 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원 합격자 발표 일정에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 3차 이후 발표 일정이 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 1차 충원 합격자 등록과 같은 추가 정보가 원본 텍스트에 없고, 3차 이후 발표 일정이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.8354875154120986</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표는 다음과 같은 일정으로 이루어집니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+이후 추가합격자는 다음과 같은 일정으로 발표됩니다:
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+따라서, 추가합격자 발표는 2024년 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시모집 등록자의 결원에 대한 정보와 정시 일반학생전형 모집인원으로 이월하여 추가 합격자를 선발한다는 내용을 잘못 해석하고 있습니다. "5시간 이내의 추가 모집은 제공되지 않았습니다."라는 문장은 원문과 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 추가 모집에 대한 조건을 설명하고 있지만, 생성된 응답은 그와는 다른 내용을 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 일부 관련된 내용을 포함하고 있지만, 원문에서 다루고 있는 주요 주제인 추가 모집에 대한 정보와는 거리가 있습니다. 체육학과의 실기고사에 대한 언급은 원문과 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 이들 간의 연결이 약해 전체적으로 일관된 흐름이 부족합니다. 원문과의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, "5시간 이내의 추가 모집은 제공되지 않았습니다."라는 문장은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 다루고 있는 주제와는 다른 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.5096273293862219</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>5시간 이내의 추가 모집은 제공되지 않았습니다. 현재 정보에서는 각 단과대학, 계열, 모집단위별로 최대 선발 가능 인원이 정해져 있습니다. 예를 들어 체육학과는 실기고사에서 제자리 멀리뛰기, 메디신볼 던지기, Z-런 종목을 통해 평가되며, 각각의 배점 비율도 명시되어 있습니다.
+추가 모집에 대한 정보가 필요하시다면, 제공된 링크를 참조하거나, 해당 대학의 공식 웹사이트에서 최신 정보를 확인해 보세요. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보에서 모집 단과대학 및 계열, 모집인원, 지원 자격 등에서 여러 가지 잘못된 정보를 포함하고 있습니다. 예를 들어, 모집인원이 17명과 7명으로 잘못 기재되어 있으며, 부동산자산경영학부라는 정보는 원본에 없던 내용입니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 모집 단과대학 및 계열과 모집인원에서 상충하는 정보를 제공합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 정보가 나열되어 있지만, 전체적인 흐름이 매끄럽지 않으며, 원본 텍스트와의 연결이 부족합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 여러 가지 차이가 있으며, 특히 모집인원과 모집 단과대학에 대한 정보가 부정확합니다. 이러한 점에서 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질 점수는 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트와의 의미적 일치가 부족하여 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 복잡하게 표현되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.6865113168095207</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자나 재직자를 대상으로 하는 입학 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. **모집 단과대학 및 계열**: 미래융합대학 인문사회 계열의 부동산자산경영학부입니다.
+2. **전형명**: 학생부종합(평생학습자전형, 성인학습자(정원내외)전형, 재직자전형)
+3. **모집인원**:
+   - 학생부종합(성인학습자(정원외)전형): 17명
+   - 학생부종합(재직자전형): 7명
+4. **지원 자격**: 
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 등
+   - 재직기간 산정 기준: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+5. **전형요소 반영 비율**: 
+   - 서류: 70%
+   - 면접: 30%
+6. **제출서류**:
+   - 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따라 다르게 제출해야 합니다.
+7. **면접평가 영역 및 배점**: 
+   - 학업역량: 280점
+   - 공동체역량: 140점
+   - 전공적합성: 280점
+8. **부정적 사례**:
+   - 학교생활기록부 작성 과정에서의 부정 행위, 과장된 내용 기재 등이 있습니다.
+이 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 웹사이트를 참조해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"로 접속하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 조건만을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 조건과 생성된 응답의 조건은 서로 다릅니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전혀 다른 지원자격을 나열하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.663368815404128</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>2024년도 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 국가·지방자치단체 및 공공단체 소속 직원이거나 상시근로자 5인(사업주 포함) 이상 사업체에 재직 중인 자
+- 근로기준법 제11조에 의거 상시근로자 3년 이상(예정) 재직한 자
+- 4대 보험 중 1개 이상 가입된 사업체의 직원 (창업·자영업자 포함)
+- 군 의무복무 경력이 있는 자
+위와 같은 조건을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지 않는다고 언급하고 있지만, 원본 텍스트에는 실기고사 대기실 및 입실시간에 대한 명확한 정보가 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고 있으며, 실기고사에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 요청하는 질문에 대한 답변으로는 적절하지 않지만, 관련 웹사이트를 제안하여 추가 정보를 찾도록 유도하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 다루지 않기 때문에 점수는 중간입니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 실기고사에 대한 구체적인 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 관련성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있지만, 실기고사에 대한 추가 정보를 찾도록 유도하는 점에서 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.4254829501325733</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사에 대한 구체적인 내용이 없습니다. 고등학교 유형별 지원 자격이나 서류 제출 등에 대해 설명되어 있지만, 실기고사와 관련된 정보는 없습니다.
+더 정확한 답변을 위해 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 실기고사와 관련된 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고 있으며, 원본 텍스트의 핵심 정보를 누락하고 있습니다. 또한, 실기고사에 대한 구체적인 내용이 없고, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보가 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 구체적인 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 정보를 제공하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 내용의 적절성 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.3668363863685232</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到体育学专业的实际操作考试（实考）的具体地点。根据您提供的内容，体育学专业属于“실기/실적 위주”类型中的一个招生类别，但没有具体说明实考的安排或地点。
+如果需要了解具体的实考地点或其他详细信息，建议直接访问学校官网或者联系学校的招生办公室进行确认。通常这类信息会在学校的官方网站上发布，也可以通过电话、邮件等方式咨询。
+相关链接：[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)
+您可以访问该网站获取更多关于体育学专业以及其他专业的详细招生信息。</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있습니다. 원문은 전화 통보가 이루어지지 않는다고 명확히 설명하고 있으나, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게 잘못된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약해집니다. 잘못된 정보가 포함되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 전화 통보가 이루어지지 않는다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6600818424781273</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 정확한 일정은 아직 공지되지 않았습니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하거나 입학관리팀에 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다. 두 텍스트 모두 수시모집 결과에 대한 정보가 없음을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수시모집 결과에 대한 정보가 없다는 점을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.8599040316495392</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 사실을 부정하고, 수능을 응시하지 않아도 지원 가능한 전형이 있다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 담고 있습니다. 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있는데, 생성된 응답은 수능 없이 지원할 수 있는 전형이 있다고 주장합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에 대한 직접적인 답변이 아니며, 수능 없이 지원할 수 있는 전형에 대한 정보를 제공하고 있지만, 이는 원문에서 질문한 내용과는 관련이 없습니다. 원문에 대한 적절한 답변이 아니므로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어지므로 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 점이 있습니다. 수능 응시 여부와 관련된 정보가 서로 충돌하므로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 담고 있습니다. 따라서 정확성 점수는 최하점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 완전히 무시하고 있습니다. 따라서 의미적 적절성 점수는 최하점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 신뢰성이 떨어지므로 점수를 약간 낮추었습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.6357977664713718</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시모집에서 수능을 응시하지 않아도 지원이 가능한 전형들이 있습니다. 예를 들어, "학생부종합" 전형들은 수능 점수가 필요하지 않습니다. 
+특히 다음과 같은 전형들은 수능 없이 지원 가능합니다:
+- 학생부종합(성인학습자전형)
+- 학생부종합(평생학습자전형)
+- 학생부종합(재직자전형)
+따라서 수능을 응시하지 않더라도, 위와 같은 전형들을 통해 정시모집에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 불가능하다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원문에서 제시한 정보와 생성된 응답의 내용이 서로 모순되므로, 일관성 점수는 최하점입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 제공하는 정보와는 다르게, 정시 지원이 불가능하다는 잘못된 주장을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수도 최하점입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 따라서 점수는 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 점수는 중간 이상입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.6225994162441199</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에 지원하는 것은 불가능합니다. 대학입학전형은 학력기준을 설정하고 있으며, 대부분의 경우 최대 6년 이내의 교육과정이 필요합니다.
+하지만 일부 특별한 전형이나 재직자 전형 등에서는 학력을 인정해 주는 경우도 있으므로, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 상세 정보를 확인하시기 바랍니다. 특히 나군의 농어촌 학생전형이나 미래융합대학의 성인학습자 전형 등을 살펴보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.7723121981149438</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감시간은 각각의 모집단위별로 다릅니다. 원서접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출할 수 있으며, 마감시간은 각각의 모집단위별로 다릅니다. 서류 제출 방법은 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 발송합니다.
+4. **실기고사**: 
+   - **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+   - **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 마찬가지로 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록은 2024년 2월 2일(금) 14:00에 진행되며, 홈페이지에서 개별 조회가 가능합니다.
+   - 충원 합격자 발표 및 등록은 2차로 이루어지며, 각각의 일정은 다음과 같습니다:
+     - **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+     - **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+     - **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+이상이 동의대학교 정시 모집일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8909194083938661</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감일은 18시까지입니다. 접수 사이트는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com] 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 원서접수와 동일한 기간인 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감일은 17시까지 도착해야 합니다. 서류 제출 대상과 방법에 대한 자세한 내용은 [Ⅳ. 전형별 세부 안내]에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 마찬가지로 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표 및 등록은 2024년 2월 2일(금) 14:00에 진행됩니다. 이날에는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+   - 최초 합격자 등록은 2024년 2월 7일(수)부터 13일(화)까지 이뤄집니다. 등록 장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+   - 충원 합격자 발표 및 등록은 2024년 2월 14일(수)부터 진행됩니다. 이날에는 9시부터 16시까지 충원 합격자 1차 (인터넷) 발표와 등록이 이루어집니다.
+   - 충원 합격자 2차 (인터넷) 발표는 2024년 2월 15일(목) 9시에 진행되며, 이날에는 동일한 시간대에 충원 합격자 2차 (인터넷) 등록이 이루어집니다.
+위와 같은 일정을 참고하여 원서접수 및 서류 제출 등을 진행하시면 됩니다. 자세한 내용은 입학안내 홈페이지를 통해 확인하실 수 있습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do] 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 완전히 무시하고, 수능 미응시자가 지원 가능한 전형을 제시하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 전혀 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 미응시자에 대한 정보를 제공하고 있지만, 원문에서 명시된 수능 성적이 요구된다는 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6173018111073062</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"과 "학생부종합(성인학습자(정원내)전형)"입니다. 이 두 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+따라서 수능 미응시자도 지원이 가능한 전형은 위의 두 가지입니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 찾지 못했다고 언급하고 있지만, 원본 텍스트에서는 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 충원 합격 차수에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다. 그러나 대학 입시 홈페이지를 언급한 점은 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관성이 떨어집니다. 정보의 흐름은 있지만, 내용의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 전자공학과의 충원 합격에 대한 구체적인 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.6398270447945577</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 전자공학과와 관련된 내용을 찾지 못했습니다. 전년도 전자공학과의 충원 합격 차수에 대한 자세한 정보를 얻기 위해서는 대학 입시 홈페이지나 해당 대학 입학처에 직접 문의하시는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 제공되지 않았다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 기재되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 전화번호가 명시되어 있음에도 불구하고, 전화번호가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호가 없다는 잘못된 정보로 인해 관련성이 떨어집니다. 그러나 웹사이트를 참조하라는 부분은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 전화번호가 없다는 잘못된 주장이 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호가 없다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있으며, 전화번호가 없다는 주장은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.6900696930887965</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 없습니다. 추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요. 해당 페이지에서 연락처를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 절차에 대해 잘못된 정보를 제공합니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 결과를 확인해야 한다고 언급하고 있습니다. 이는 원본의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있으나, 생성된 응답은 홈페이지에서 결과를 확인해야 한다고 하여 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심적인 내용인 전화 통화가 되지 않을 경우의 처리에 대한 정보가 부족합니다. 따라서 관련성은 있지만, 원본의 주요 내용을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본의 핵심 내용을 반영하지 못해 다소 단절된 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화 통화가 되지 않을 경우의 처리에 대한 정보가 잘못 전달되고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미적 적절성은 보통 수준입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본의 핵심 내용을 충분히 반영하지 못해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.5420448199362172</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 다시 홈페이지에서 개별 조회를 통해 결과를 확인해야 합니다. 또한 고지서는 학생이 직접 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있으며, 등록장소는 학교 지정은행으로 정해져 있습니다.
+따라서 전화 통화가 되지 않아도 합격자로서의 절차를 완료할 수 있도록 홈페이지와 고지서, 등록장소 등의 정보를 통해 안내받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "농어촌학생전형"에 대한 구체적인 정보를 제공하지 않고, 일반 학생 유형에 대한 정보로 잘못된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 농어촌학생전형에 대한 구체적인 서류를 나열하고 있지만, 생성된 응답은 이를 무시하고 다른 정보를 제공합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 농어촌학생전형에 대한 정보가 아닌 일반 학생 유형에 대한 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 명확하지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.4472767340270437</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>所提供的信息中并没有关于“농어촌학생전형（农村学生类型）”的具体内容。根据提供的信息，相关的申请材料主要集中在一般学生类型（如：가군, 나군等）。如果您想了解有关“농어촌학생전형”的详细信息，请访问以下网站以获取更准确的数据：“https://ipsi. deu. ac. kr/main. do”。该网站应该会提供关于农村学生的特殊招生类型的详细说明和所需文件。</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 추가적인 설명도 포함되어 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 정보가 원본 텍스트에 포함되지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보로 인해 정확성이 약간 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.833761180443801</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들은 지원자의 초등학교부터 고등학교까지의 학교생활을 반영하며, 농어촌 지역에서의 거주와 교육과정 이수를 확인하는 데 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 저소득 기회균등 전형에 대한 언급도 포함되어 있습니다. 그러나 "현재의 정보로는 정시 모집에서 저소득 기회균등 전형이 진행되지 않는 것으로 보입니다."라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 존재하지 않는다는 점을 잘 전달하고 있습니다. 다만, "진행되지 않는 것으로 보입니다."라는 표현은 약간의 불확실성을 내포하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "제공된 정보에서는"이라는 문구가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 불확실성을 내포한 문장이 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 기회균등 전형이 존재하지 않는다는 점을 정확하게 전달하고 있습니다. 다만, "진행되지 않는 것으로 보입니다."라는 표현이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 모호함이 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 "진행되지 않는 것으로 보입니다."라는 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문구가 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.6552811541787625</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 특정한 '저소득 기회균등 전형'에 대한 내용이 없습니다. 따라서, 현재의 정보로는 정시 모집에서 저소득 기회균등 전형이 진행되지 않는 것으로 보입니다.
+하지만, 정확한 답변을 위해서는 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하시거나, 직접 입학처에 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 절사되지 않고 그대로 적용된다고 주장하지만, 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 완전히 일치하지 않으며, 일부 정보가 잘못 해석된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 절사 여부에 대한 명확한 정보가 없다는 점에서 일관성이 부족합니다. 원문은 절사 여부를 확인하라고 안내하고 있으나, 생성된 응답은 이를 무시하고 2.5등급이 그대로 적용된다고 주장합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 수능 최저등급과 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 절사되지 않는다고 주장하지만, 원문에서는 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 관련성은 높지만, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 원문과의 차이가 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 원문과의 차이로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7446434916521532</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5등급은 절대적인 등급이므로, 수능 최저등급에서 사탐 2과목 평균산출을 할 때 2.5등급은 그대로 2.5등급으로 처리됩니다. 절사라는 개념은 등급이 아닌 특정 점수를 기준으로 하는 경우에 사용되며, 등급 자체는 절사 대상이 아닙니다.
+따라서 사탐 2과목의 평균산출에서 2.5등급이 나온다면 그대로 2.5등급을 적용하여 학생부종합전형의 수능 성적 산출에 사용합니다.
+더 궁금한 점이 있다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 참조하거나 관계된 학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 3차 발표에 대한 구체적인 일정이 누락되어 있습니다. "자세한 일정이 제공되지 않았으나, 일반적으로 이와 유사하게 진행될 것으로 보입니다."라는 문장은 사실과 다르며, 3차 발표에 대한 명확한 정보를 제공하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정에 대한 정보를 일관되게 제공하지만, 3차 발표에 대한 정보가 불명확하여 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 발표 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "자세한 일정이 제공되지 않았으나" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 3차 발표에 대한 불확실성이 전체적인 일관성을 약간 저해합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정에 대한 정확한 정보를 제공하지만, 3차 발표에 대한 정보가 부정확하거나 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 3차 발표에 대한 정보 부족으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 3차 발표에 대한 불확실성이 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 3차 발표에 대한 불확실성으로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7942554018198542</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 세 차례 있습니다. 첫 번째로, 2024년 2월 14일(수) 오전 9시에 1차 발표가 있을 예정이며, 그 다음으로 2024년 2월 15일(목) 오전 9시에 2차 발표가 있을 예정입니다. 마지막으로, 세 번째 충원 합격자 발표는 자세한 일정이 제공되지 않았으나, 일반적으로 이와 유사하게 진행될 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 사실을 포함하고 있지만, 수능 4개 영역 등급이 4.6이라는 점수와 관련된 정보가 정확하지 않습니다. 수능 4개 영역 등급이 4.6이라는 점수는 평균(4.17 및 4.53)보다 높지만, 응답에서 언급된 평균 점수(308.58)는 수능 등급과 관련이 없습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적과 관련된 평균 점수의 비교에서 일관성이 부족합니다. 수능 4개 영역 등급과 관련된 평균 점수는 4.17 및 4.53이므로, 308.58과의 비교는 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 불필요한 세부사항이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 수능 성적과 관련된 평균 점수의 비교에서 부정확한 정보를 제공합니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있으며, 관련성은 높지만 정확성과 일관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합합니다. 그러나 일부 세부사항이 불필요하게 추가되어 있어 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.6139275481966218</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집인원은 10명이고, 지원 인원은 89명으로 경쟁률이 8.90입니다. 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 308.58이며, 이는 e비즈니스학과 지원자들의 성적 분포를 나타냅니다.
+만약 수능 성적이 4.6이면, 이는 평균보다 약간 높은 점수입니다. 그러나 정시 전형으로 추가 합격 가능 여부는 여러 요소에 따라 결정됩니다:
+1. **평균 점수와 비교**: 4.6이라는 성적은 평균(308.58)보다 약간 높습니다.
+2. **표준 편차**: 표준 편차가 10.96이므로, 이는 성적이 상대적으로 높다는 것을 의미합니다.
+하지만 정시 전형으로 추가 합격 가능 여부는 단순히 수능 점수뿐만 아니라 지원자의 총 평균 점수, 표준 편차 등 여러 요소를 고려해야 합니다. 따라서 4.6이라는 성적만으로는 확정적으로 추가 합격이 가능한지 알 수 없습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 정시 전형 기준을 확인하거나, 대학 입학처에 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 포함하고 있으며, 정시 등급 5.3에 대한 합격 가능성을 낮게 평가하고 있습니다. 그러나 일부 세부사항(예: 정원 내 모집 인원, 전형별 지원 자격 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가적인 정보가 포함되어 있어 원본과의 일관성이 다소 떨어질 수 있습니다. 예를 들어, 전형별 평가 요소에 대한 설명은 원본 텍스트에 없던 내용입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.3에 대한 합격 가능성을 논의하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있으며, 정시 등급 5.3에 대한 평가가 적절합니다. 그러나 추가된 정보가 원본에 명시되지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.633699222557643</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과에 대한 정보를 바탕으로, 정시 등급 5.3이면 최초 합격 가능성은 매우 낮다고 판단할 수 있습니다.
+다음은 이유입니다:
+1. **정원 내 모집 인원**: e비즈니스학과의 정원 내 모집 인원은 40명이며, 이는 상당한 규모입니다.
+2. **전형별 지원 자격**: e비즈니스학과는 주로 학생부종합 전형을 통해 모집되며, 이는 등급이 낮은 학생들에게도 기회를 제공합니다. 그러나 정시 등급 5.3은 상당히 낮은 등급입니다.
+3. **전형별 평가 요소**: 2024년에는 학생부교과 성적을 반영하는 비율이 높아졌습니다 (2023년에는 18%, 2024년에는 60%). 이는 등급이 낮은 학생들에게도 기회를 제공하지만, 정시 등급 5.3은 여전히 매우 낮은 수준입니다.
+따라서, 정시 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 매우 어렵다고 판단됩니다. 더 높은 등급을 유지하거나, 다른 전형 (예: 특성화고 지원)을 고려해 보는 것이 좋을 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하는 것을 추천드립니다. "https://ipsi. deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 "예비 38번이라면 예비 합격할 가능성이 낮습니다"라는 사실을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 가능성이 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 추가적인 정보를 제공하고 있으며, 관련된 요소들을 언급하고 있습니다. 그러나 원본 텍스트의 핵심 메시지와는 다소 거리가 있어 점수를 낮추었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 연결되는 방식이 명확하지 않아 점수를 낮추었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 예비 38번의 합격 가능성에 대한 잘못된 해석이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 점수를 중간으로 설정했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.554359665273093</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 이정도 성적이나 경쟁률, 지원 인원 등을 고려하면 충분히 예비합격 가능성은 있으나, 최종 합격 여부는 여러 요인에 따라 결정됩니다.
+특히 다음과 같은 요소들이 중요합니다:
+1. **경쟁률**: 지원 인원과 모집 인원의 비율을 확인해야 합니다.
+2. **성적 평균**: 제공된 성적 평균과 비교하여 자신의 위치를 파악해야 합니다.
+3. **추가 제출서류**: 필요 서류를 모두 준비했는지 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 해당 전공과 관련된 최신 정보를 확인하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.44의 성적이 낮은 확률이라는 점을 언급하고 있습니다. 그러나 "평균적으로 수능 성적 4.0 이상의 학생들이 많이 입학하고 있다"는 부분은 다소 과장된 표현으로 보입니다. 따라서, 전반적으로 사실에 기반하고 있지만 일부 세부사항에서 정확성이 떨어질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "4.0 이상의 학생들이 많이 입학하고 있다"는 주장은 원본 텍스트에서 제공된 평균 성적과 일치하지 않습니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 간호학과에 합격하기 위한 다양한 요소들을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있지만, 평균 성적에 대한 언급에서 약간의 과장이 있습니다. 그 외의 정보는 정확하게 반영되고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일부 세부사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 부적절함이 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.6163450631412337</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과는 매우 경쟁이 치열한 학과로, 평균적으로 수능 성적 4.0 이상의 학생들이 많이 입학하고 있습니다.
+하지만 모든 것이 절대적이지 않으며, 다음과 같은 요소들을 고려해야 합니다:
+1. **학생부 성적**: 수능 성적 외에도 학생부 성적이 중요합니다. 간호학과에서는 진로선택 과목의 성적도 반영하므로, 이 부분에서 높은 점수를 받았다면 도움이 될 수 있습니다.
+2. **면접**: 일부 전형에서는 면접 점수가 합격 결정에 큰 영향을 미칩니다. 간호학과에서도 면접 성적이 중요하므로, 잘 준비한다면 좋은 결과를 얻을 수 있습니다.
+3. **추천서**: 추천서가 있는 경우도 고려해볼 만합니다. 교사나 부모님의 추천서는 합격에 긍정적인 영향을 미칠 수 있습니다.
+4. **특기사항**: 특기사항이나 봉사활동 등이 있다면 이를 잘 작성하여 지원하면 도움이 될 수 있습니다.
+5. **재수 가능성**: 처음부터 합격할 확률이 낮다면, 재수를 고려해볼 수도 있습니다. 재수 시에는 성적을 향상시키는 데 더 집중하고, 면접 준비도 철저히 하여 합격 가능성을 높일 수 있습니다.
+결론적으로 3.44의 성적만으로는 낮은 확률이지만, 다른 요소들을 잘 활용한다면 합격 가능성은 조금이라도 높아질 수 있을 것입니다. 추가 정보를 제공하거나, 더 자세한 조언을 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 2.52의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 상대적으로 낮다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 2.52의 성적이 합격 가능성이 높다고 했지만, 생성된 응답에서는 낮다고 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원 자격 및 경쟁률에 대한 정보를 제공하고 있지만, 원문에서 요구하는 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 특히 결론 부분에서 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 잘못 해석하고 있으며, 특히 성적에 대한 평가가 부정확합니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일관성, 정확성, 사실성에서 부족함을 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 부분이 있어 점수를 낮추었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 원문과의 관계가 불명확하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.587080233361418</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 자격 및 경쟁률을 고려해보겠습니다.
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+**평균 표준 변환 점수 합**: 357.63
+**표준 편차**: 5.37
+당신의 성적은 2.52이므로, 평균보다 상대적으로 낮습니다. 하지만, 표준 편차를 고려하면, 평균에서 약 1.86 표준편차 아래에 위치한 것입니다.
+**평균 점수와 비교**: 
+- 평균 점수는 357.63이므로, 당신의 성적은 평균보다 약 20점 낮습니다.
+- 이는 경쟁률과 함께 고려해야 합니다.
+**결론**: 
+당신의 성적이 간호학과의 평균 점수와 비교해보면 상대적으로 낮지만, 동의대학교 간호학과에 최종 합격하는 것은 어렵지 않을 것으로 보입니다. 하지만, 최종 합격을 위해서는 추가적인 지원 자료나 면접 등에서 우수한 성적을 거두어야 할 것입니다.
+더 정확한 판단을 위해, 동의대학교 입학처 웹사이트를 방문하여 가장 최신 정보와 요구 사항을 확인하시기 바랍니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 포함하고 있으며, 3.7이라는 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 "정시 모집군이나 해당 학과의 정시 성적 기준 등이 명확히 나와 있지 않다"는 부분은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 일부 정보가 부족하다고 볼 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 간호학과의 성적 기준에 대한 논의가 일관되게 이어집니다. 다만, "확답하기 어렵다"는 표현은 원본의 명확한 결론과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 정시 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.7이라는 성적이 평균보다 낮다는 점을 정확히 언급하고 있습니다. 그러나 "정시 모집군이나 해당 학과의 정시 성적 기준"에 대한 정보가 부족하다는 점에서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받을 수 있습니다. 그러나 일부 요소에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다. 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6929249786732489</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 간호학과의 정시 모집군이나 해당 학과의 정시 성적 기준 등이 명확히 나와 있지 않습니다. 따라서 간호학과에 정시로 합격할 수 있는지 확답하기 어렵습니다.
+정시 모집에서 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 간호학과의 정시 모집군 성적 기준
+2. 해당 학교와 학과의 경쟁률
+3. 개인의 전형별 성적 평균
+위에서 언급한 요소들을 확인하고자 한다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하거나, 해당 대학 입학처에 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.
+또한 간호학과는 일반적으로 정시 모집에서 높은 성적 기준을 요구하기 때문에, 3.7이라는 성적이 합격선에 미치지 못할 가능성이 높습니다. 그러나 경쟁률이 낮거나 특별한 사정이 있는 경우에는 합격 가능성도 있습니다.
+따라서 최종적인 결정을 내리기 위해서는 대학 입학처와의 직접적인 문의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 점수와 관련된 정보가 잘못되었습니다. 원본 텍스트에서는 정시 성적이 2.58이라면 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 2.58이 낮은 점수라고 잘못 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 2.58이 평균보다 높은 성적이라고 했지만, 생성된 응답에서는 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 이해하기 쉽습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 2.58이라는 성적이 낮다고 판단한 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 성적에 대한 해석이 잘못되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6942850066484677</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 지원 자격 및 평균 점수를 확인해보겠습니다.
+간호학과의 경우, 2024학년도 모집에서 다음과 같은 정보가 있습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 357.63
+이 정보를 바탕으로, 정시 성적이 2.58인 경우 간호학과에 지원하는 것은 어렵다고 판단할 수 있습니다. 간호학과의 평균 점수가 357.63이고, 표준 편차가 5.37이므로, 2.58은 매우 낮은 점수입니다.
+하지만 정확한 합격 가능성 판단을 위해서는 동의대학교의 최종 합격 기준 점수를 확인해야 합니다. 이 정보는 대학 홈페이지에서 확인할 수 있으니, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보시기 바랍니다.
+또한, 간호학과의 경우 특별한 지원 자격이 있을 수도 있으므로, 대학 홈페이지에서 최신 정보를 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번의 합격 여부에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다"는 내용을 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번의 합격 여부에 대한 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 예를 들어, 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그 가능성을 언급하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호 7번과 관련된 정보를 제공하고 있으며, 합격 발표일과 확인 방법에 대한 정보를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 합격 여부 확인 방법에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 않아 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 발표일과 확인 방법에 대한 정확한 정보를 제공하지만, 원본 텍스트의 예비 7번의 합격 가능성에 대한 정보가 누락되어 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호 7번과 관련된 의미를 적절히 전달하고 있으며, 합격 여부에 대한 정보도 포함하고 있습니다. 그러나 원본 텍스트의 의미를 완전히 반영하지는 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 원본 텍스트의 핵심 내용이 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.579685441770997</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>7번 예비번호를 가진 경우, 합격 여부는 발표일에 따라 결정됩니다. 현재 제공된 정보로는 특정 합격 여부를 알 수 없습니다.
+2024년 2월 15일 목요일에 합격자 발표가 이루어집니다. 홈페이지에서 개별 조회하거나 고지서를 출력할 수 있으며, 입학관리팀에서도 고지서를 수령하실 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재되어 있을 것입니다.
+따라서 7번 예비번호의 합격 여부를 확인하려면 2024년 2월 15일 목요일 발표 이후 홈페이지에서 개별 조회하거나 입학관리팀에서 고지서를 수령하여 확인하시기 바랍니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 동의대학교 게임공학과의 수능 4개 영역 등급 평균이 6.30이라고 언급했으나, 원본 텍스트에서는 4.78로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 4.16이라는 점수가 상대적으로 낮다고 언급했지만, 원본 텍스트에서는 이 점수가 평균보다 높다고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 4.16이 평균보다 높은 성적이라고 했으나, 생성된 응답에서는 이를 낮은 점수로 간주하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 추가 합격 가능성에 대한 논의도 포함되어 있습니다. 그러나 일부 정보는 원본 텍스트와 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 매끄럽지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 수능 점수 평균에 대한 정보가 잘못되었습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.6569357500397039</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 상대적으로 낮은 점수입니다. 동의대학교 게임공학과의 경우, 정시 모집에서는 경쟁률이 높을 것으로 예상됩니다.
+주요 요인으로는:
+1. **경쟁률**: 게임공학과는 인기 학과로, 지원자가 많아 경쟁률이 높을 것입니다.
+2. **수능 점수 평균**: 동의대학교 게임공학과의 수능 4개 영역 등급 평균은 6.30입니다. 이보다 낮은 점수가 추가 합격 가능성에 부정적인 영향을 미칠 수 있습니다.
+3. **추가 합격 가능성**: 정시 모집에서 추가 합격이 가능할지는 지원자의 총점, 학교생활기록부 등 다양한 요인에 따라 달라질 것입니다.
+따라서 4.16이라는 점수로는 추가 합격이 어려울 것으로 예상됩니다. 그러나 정확한 판단을 위해서는 동의대학교 게임공학과의 정시 모집에서의 수능 점수 평균, 지원자들의 총점 분포 등을 확인해야 합니다.
+추가적으로, 다른 전형(예: 나군 학생부종합)이나 대안적인 학교를 고려해 보는 것도 좋은 방법일 수 있습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지 않고, 대신 추가적인 정보가 필요하다고 언급하고 있습니다. 이는 원본 텍스트의 핵심 사실을 무시하고 있으며, 제공된 정보에 대한 정확한 해석이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 성적에 대한 긍정적인 가능성을 언급한 원본 텍스트와 상반된 정보를 제공합니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 경영정보학과에 대한 추가적인 정보와 조건을 제시하지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하거나 무시하고 있으며, 경영정보학과의 성적에 대한 긍정적인 가능성을 간과하고 있습니다. 이는 정확성에 문제가 있음을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질이 낮음을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 반영하지 않지만, 일부 관련된 주제를 다루고 있어 적절성을 어느 정도 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 부분은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.6256061232208323</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경영정보학과에 대한 자세한 내용이 없습니다. 경영정보학과의 모집단위, 정원 내 모집 인원 등 구체적인 정보가 필요합니다.
+만약 경영정보학과가 나군이나 다군에 해당된다면, 학생부 종합전형에서 성적 반영 방식을 확인해야 합니다. 2024년도의 경우 학생부 교과성적 반영방법이 바뀌었기 때문에, 그 내용을 참조해야 할 것입니다.
+2024년도에 대한 학생부 교과성적 반영 방법은 다음과 같습니다:
+- 전반적으로 반영과목 수가 늘어났습니다.
+- 12과목 중 석차등급 상위 과목이 반영됩니다.
+따라서, 성적 3.75는 학생부 교과성적이 좋은 경우에만 유리할 것입니다. 하지만 경영정보학과의 정원 내 모집 인원과 나군/다군에서의 모집 인원을 확인해야 합니다.
+추가 정보를 제공해 주시면, 더 정확한 답변을 드릴 수 있습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하여 공식 웹사이트에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최초 등록 자격에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)와 관련된 내용을 포함하지 않아 일부 사실을 누락하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최초 등록 자격에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않는 부분이 있습니다. 원본 텍스트는 4.2의 성적이 평균보다 낮다고 명시하고 있으나, 생성된 응답은 일반적인 기준을 언급하고 있어 일관성이 떨어집니다. 따라서, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 최초 등록 자격에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치와 비교할 때 다소 일반적인 내용으로 흐르고 있습니다. 그럼에도 불구하고 주제와 관련이 있으므로, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창하므로, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지므로, 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 최초 등록 자격에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 관련된 내용을 누락하고 있습니다. 따라서, 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다. 따라서, 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 구체적인 수치와 관련된 내용이 부족하여 약간의 차이가 있습니다. 따라서, 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 원본 텍스트와의 연결성이 약간 떨어져 이해하는 데에 혼란을 줄 수 있으므로, 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.7633737324474426</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 최초 등록 자격 여부를 판단하기 어렵습니다. 경영정보학과의 최초 등록 자격은 학교마다 다릅니다. 일반적으로 수능 성적이 4.0 이상이면 최초 등록 자격이 주어지지만, 정확한 자격 요건은 동의대학교에서 확인해야 합니다.
+추가 정보를 제공해주시면 더 정확한 답변을 드릴 수 있습니다. 특히 경영정보학과의 최초 등록 자격 조건과 지원 가능 여부에 대한 공식적인 안내를 확인하시기 바랍니다.
+자세한 내용은 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 정시 성적 5.33이 평균 등급보다 낮다는 점을 언급하고 있습니다. 그러나 "확정적으로 답변하기 어렵다"는 부분은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 일부 정보가 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 경영정보학과의 평균 등급과 관련된 정보를 잘 반영하고 있습니다. 다만, "합격 가능성이 낮다"는 원본의 결론과는 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 유창성 저하가 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 약간 어색하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 경영정보학과의 평균 등급과 관련된 정보를 정확하게 전달하고 있습니다. 그러나 추가적인 정보가 필요하다는 점에서 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성은 높지만 완전하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.6315149839503645</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 경우 합격이 가능한지 확정적으로 답변하기 어렵습니다. 동의대학교 경영정보학과의 모집요강, 전형방법, 합격기준 등 추가적인 정보가 필요합니다.
+만약 동의대학교의 경영정보학과 일반학생전형에 대한 자세한 정보를 원하신다면, 해당 대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 최신 모집요강을 확인하시거나, 학교 입학처로 문의하시는 것이 좋습니다.
+추가적으로, 정시 성적이 5.33인 경우 동의대학교 경영정보학과에 지원하는 것은 가능하지만, 실제 합격 가능성은 모집인원, 지원인원, 경쟁률 등 다양한 요소에 따라 달라질 수 있습니다. 따라서 최신 정보를 확인하시고, 필요하다면 입학처와 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 관련된 정보를 제공하지만, 2024년의 전형 변경 및 학과 분리에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 성적 3.33에 대한 합격 가능성에 대한 해석이 다소 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 전형 변경 및 경쟁률에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주된 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 다소 주제를 벗어난 느낌이 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과 다소 다르게 해석되고 있습니다. 특히 성적 3.33에 대한 합격 가능성에 대한 해석이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트의 맥락과는 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.6629199268716112</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024년에 바이오응용공학부(현재는 의생명공학과, 바이오의약공학과, 식품공학과로 분리됨)에 지원하려면 현재 제공된 정보를 바탕으로 다음과 같은 점들을 고려해야 합니다.
+1. **성적 평균**: 2024년 모집단위에서 의생명공학과, 바이오의약공학과, 식품공학과에 지원할 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 284.86입니다. 이는 성적 3.33 정도로 보시면, 평균보다 약간 낮습니다.
+2. **경쟁률**: 해당 분야에서는 경쟁률이 높을 수 있습니다. 예를 들어, 의생명공학과, 바이오의약공학과, 식품공학과는 각각 99명 모집에 238명 지원한 경우, 경쟁률은 약 2.40입니다.
+3. **전형 변경**: 2024년에는 학과 분리가 이루어졌습니다. 이로 인해 전형이 어떻게 변경되었는지 확인해야 합니다. 예를 들어, 학생부종합 평가영역이나 전형요소 반영비율 등이 변경되었을 수 있습니다.
+따라서 성적 3.33 정도에서는 최초등록자로 선발될 확률이 낮습니다. 하지만 정시모집에서의 경쟁률과 지원자의 성적이 다양하게 분포되어 있으므로, 특정 학생의 경우 최초등록자로 선발될 수도 있습니다.
+추가적으로, 동의대학교의 정시모집에 대한 자세한 정보는 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 입학처에 직접 문의하시는 것이 가장 정확한 답변을 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지 않고, 지원 가능성을 판단하기 어렵다고 언급하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 평균 등급에 대한 명확한 언급이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 방사선학과의 평균 등급에 대한 언급이 없고, 지원 가능성을 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 절차를 설명하고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원 절차를 단계적으로 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지 않아 정확성이 떨어집니다. 원본 텍스트의 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 일반적인 조언을 제공하고 있어 의미적으로 적절하지만, 원본 텍스트의 구체적인 사실과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.6465507770748837</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보만으로는 방사선학과에 지원할 수 있는지 확실하게 판단하기 어렵습니다. 방사선학과의 모집요강과 전년도 합격점 등을 확인해야 합니다.
+방사선학과에 지원하려면 다음과 같은 절차를 따르세요:
+1. **모집요강 확인**: 해당 대학 홈페이지에서 방사선학과의 정시 모집요강을 확인하세요.
+2. **전년도 합격점 참조**: 전년도 합격점을 확인하여 현재 성적(4.4 등급)이 어느 수준인지 판단하세요.
+3. **경쟁률 확인**: 해당 학과의 경쟁률을 확인하여 지원 가능성을 판단하세요.
+만약 모집요강이나 전년도 합격점 등을 확인할 수 없다면, 대학 홈페이지의 "https://ipsi. deu. ac. kr/main. do"를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.
+현재 제공된 정보로는 방사선학과 지원 가능성을 판단하기 어렵습니다. 자세한 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보가 없다고 주장하지만, 원본 텍스트는 방사선학과의 평균 등급과 합격 가능성에 대한 구체적인 정보를 제공합니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 부정하며, 방사선학과와 관련이 없다고 언급합니다. 이는 원본 텍스트와 상충하는 정보로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 요청하는 질문에 대한 답변으로 보이지만, 원본 텍스트의 핵심 내용과는 거리가 있습니다. 관련성은 있지만, 주제를 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 제공하지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보 요청에 대한 답변으로 적절한 부분이 있지만, 원본 텍스트의 의미와는 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 의사 전달이 이루어졌습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.6473206387151782</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과와 관련이 없어 보입니다. 방사선학과에 대한 정보가 필요하다면, 해당 학과의 모집요강이나 입학 조건을 확인해보시기 바랍니다.
+만약 방사선학과의 평균 점수나 경쟁률 등을 알고 싶다면, 관련 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 방문하여 자세한 정보를 얻으실 수 있습니다. 해당 사이트에서 방사선학과에 대한 최신 입학 조건 및 평균 점수 등의 데이터를 확인하실 수 있을 것입니다.
+만약 다른 학과의 정보가 필요하시다면, 말씀해 주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성을 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 정보는 성적이 평균보다 높고 경쟁률이 낮아졌다는 긍정적인 요소를 강조하고 있습니다. 따라서, 응답은 원본의 긍정적인 요소를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성에 대한 판단을 부정적으로 표현하고 있어 일관성이 떨어집니다. 원본 텍스트는 희망을 가져도 된다고 언급하고 있으나, 생성된 응답은 그와 반대되는 입장을 취하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 긍정적인 요소를 간과하고 있습니다. 그럼에도 불구하고, 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 합격 가능성에 대한 판단이 원본의 긍정적인 요소를 무시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 합격 가능성에 대한 부정적인 해석이 원본의 긍정적인 메시지와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.553972200819298</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경찰행정학전공 농어촌 전형에 대한 정확한 합격 가능성을 판단하기 어렵습니다. 이전의 성적과 학업역량, 공동체 역량 등 다양한 요소가 서류평가에서 고려되기 때문입니다.
+특히, 나군의 경우 학생부종합전형을 통해 지원하므로, 단순한 GPA뿐만 아니라 학교생활기록부를 포함한 여러 자료들이 평가 대상이 됩니다. 따라서 3.66이라는 성적만으로는 판단하기 어렵습니다.
+추천되는 방법은 다음과 같습니다:
+1. 나군의 학생부종합전형 서류평가 영역별 세부평가 기준을 참고하여 자신의 자료를 체크합니다.
+2. 나군의 학생부종합전형 서류평가 영역 및 배점을 확인하여 각 영역에서 어떤 점수를 받을 수 있을지 예측해보는 것입니다.
+더 정확한 판단을 위해서는 나군의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과 목록을 포함하지 않고 있습니다. 또한, "확정적으로 합격할 수 있는 보장은 없습니다"라는 문구는 원문에서의 긍정적인 가능성을 약간 부정하는 내용으로, 원문과의 일관성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 예비 25번의 합격 가능성에 대한 긍정적인 언급이 부족하고, 원문에서 제시된 특정 학과 목록을 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번에 대한 합격 가능성과 관련된 정보를 제공하고 있으며, 면접 준비와 서류 제출에 대한 조언도 포함되어 있어 관련성이 높습니다. 그러나 원문에서 제시된 특정 학과 목록을 언급하지 않아 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원문에서 제시된 구체적인 학과 목록을 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용으로 구성되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.5800181299859738</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 순위가 나오더라도 확정적으로 합격할 수 있는 보장은 없습니다. 그러나 정시 일반학생 전형에서 25번까지는 상당히 좋은 성적입니다. 특히, 수능 반영 영역 중 국어, 수학, 영어 등 주요 과목의 표준점수와 탐구 영역의 점수가 높다면 합격 가능성은 있습니다.
+합격 확률을 더 높이기 위해서는 다음과 같은 준비를 하는 것이 도움이 될 것입니다:
+1. **면접 준비**: 면접 질문 공통문항과 부정적 사례를 참고하여 답변을 미리 작성하고 연습하세요.
+2. **서류 제출**: 서류 제출 시 진위 여부를 확인할 수 있는 증빙 자료를 첨부하십시오.
+3. **면접 점수**: 면접 평가에서 좋은 성적을 받기 위해 준비하는 것이 중요합니다.
+입학 전형의 경우, 여러 요소들이 합격 결정에 영향을 미치므로, 최선을 다한 후에는 결과를 기다리는 것이 좋습니다. 더 자세한 정보나 도움이 필요하시다면 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 따르면 법경찰행정학부는 존재하지 않으며, 경찰행정학과에 대한 정보만 제공되고 있습니다. 그러나 생성된 응답은 법경찰행정학부에 대한 모집 인원과 전형을 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 언급으로 인해 원본 텍스트의 핵심 주제와는 관련이 적습니다. 경찰행정학과에 대한 정보는 포함되어 있으나, 법경찰행정학부에 대한 잘못된 정보가 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 일관성을 가지고 있으나, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 논리적 흐름이 방해받고 있습니다. 경찰행정학과에 대한 정보는 잘 정리되어 있지만, 잘못된 정보가 포함되어 있어 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 법경찰행정학부에 대한 정보는 사실이 아니며, 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 문제가 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 법경찰행정학부에 대한 잘못된 정보는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 읽기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.7786694200782301</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부의 정시 모집군과 전형을 확인해보겠습니다. 
+법학과와 경찰행정학과는 각각 정원 내 모집 인원이 40명과 70명으로 설정되어 있습니다. 
+- **법학과**: 정원 내 모집 인원은 40명이며, 가군에서는 일반 학생 0명, 나군에서는 일반 학생 0명, 경기 실적 우수자 0명, 농어촌 학생 "추가내용 참조", 평생 학습자 0명, 성인 학습자(정원내) 0명, 성인 학습자(정원외) 0명, 재직자 0명, 조기 취업형 계약 학과 0명으로 모집이 이루어지고 있습니다. 
+- **경찰행정학과**: 정원 내 모집 인원은 70명이며, 가군에서는 일반 학생 0명, 나군에서는 일반 학생 7명, 경기 실적 우수자 0명, 농어촌 학생 "추가내용 참조", 평생 학습자 0명, 성인 학습자(정원내) 0명, 성인 학습자(정원외) 0명, 재직자 0명, 조기 취업형 계약 학과 0명으로 모집이 이루어지고 있습니다. 
+2024학년도 동의대학교 법경찰행정학부의 정시 모집군은 다음과 같습니다:
+- **법학과**: 
+  - 가군: 수능 (일반학생전형)
+  - 나군: 학생부종합 (농어촌학생전형, 성인학습자(정원내)전형)
+- **경찰행정학과**:
+  - 가군: 수능 (일반학생전형)
+  - 나군: 학생부종합 (농어촌학생전형, 성인학습자(정원내)전형)
+2024학년도 동의대학교 법경찰행정학부의 정시 모집에서 평균 성적을 고려할 때:
+- **법학과**: 
+  - 가군 수능 (일반학생전형): 평균 85% 이상이 안정권으로 볼 수 있습니다.
+  - 나군 학생부종합 (농어촌학생전형, 성인학습자(정원내)전형): 평균 90% 이상이 안정권으로 볼 수 있습니다.
+- **경찰행정학과**: 
+  - 가군 수능 (일반학생전형): 평균 85% 이상이 안정권으로 볼 수 있습니다.
+  - 나군 학생부종합 (농어촌학생전형, 성인학습자(정원내)전형): 평균 90% 이상이 안정권으로 볼 수 있습니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 85% 이상은 필요하며, 90% 이상을 받으면 안정권이나 문 닫고 들어갈 수 있을 것입니다. 
+하지만 이는 예측이며, 실제 모집 결과와 입학 점수는 변동이 있을 수 있으므로, 최종적인 정보는 동의대학교 입학처 웹사이트를 참조하시기 바랍니다. "https://ipsi. deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보가 포함되어 있지만, 원본 텍스트에서 제공된 아동학과의 정보와는 다소 차이가 있습니다. 특히, 아동학과의 평균 등급에 대한 언급이 없고, 보육가정상담학과에 대한 정보가 추가되어 있어 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 정보가 있지만, 보육가정상담학과에 대한 정보가 추가되어 있어 일관성이 부족합니다. 원본 텍스트의 주제와는 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원 자격 및 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트의 주제인 아동학과와의 비교가 부족하여 다소 관련성이 떨어집니다. 그러나 여전히 지원자에게 유용한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 다르게 보육가정상담학과에 대한 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 사실성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.607111952616324</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 지원 자격 및 경쟁률을 확인해보겠습니다.
+- **모집 인원**: 5명
+- **지원 인원**: 17명 (이 정보는 제공되지 않았으므로 추정할 수 없습니다.)
+- **경쟁률**: 지원자 수에 따라 달라질 수 있지만, 예를 들어 17명이라면 3.40의 경쟁률이 됩니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 358.69
+- **영어 등급**: 평균 1.70
+현재의 정시 산출 등급이 5.33이라면, 이는 상당히 높은 수준입니다. 보육가정상담학과의 평균 영어 등급이 1.70이고, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 358.69입니다.
+현재의 정시 산출 등급으로는 충분히 경쟁력을 가질 수 있을 것으로 보입니다. 하지만, 실제 지원 결과는 모집 인원과 지원 인원, 그리고 다른 지원자의 성적에 따라 달라질 수 있으므로, 최종 합격 여부는 동의대학교에서 발표하는 결과를 확인해야 합니다.
+더 자세한 정보나 추가 질문이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정에 대한 정보를 포함하고 있지만, "합격 가능성은 높습니다"라는 주장은 원본 텍스트의 내용과 일치하지 않습니다. 원본에서는 예비 번호가 12번일 경우 합격 가능성이 "아예 없는 것은 아니다"라고 언급하고 있으며, 확실한 예측이 어렵다고 명시하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, "합격 가능성은 높습니다"라는 주장은 원본의 내용과 모순됩니다. 원본에서는 합격 가능성이 불확실하다고 언급하고 있기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 예비 번호와 합격 가능성에 대한 질문에 답하고 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없으므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 일부 내용이 원본과 일치하지 않아 완전한 일관성을 제공하지는 않으므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 합격 가능성에 대한 주장이 원본 텍스트와 일치하지 않기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보여주지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 주장이 원본과 다르기 때문에 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.5940080356623275</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일부터 20일까지 발표되는 합격자 명단을 확인할 수 있습니다. 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령하실 수 있습니다.
+현재 정보로는 동의대 보육가정상담 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 높습니다. 하지만 최종 합격 여부는 발표를 기다려야 합니다. 발표일이 지나면 홈페이지에서 개별 조회를 통해 확인하실 수 있습니다.
+만약 발표가 이루어지지 않았거나 예비 등급에 대한 정보가 부족하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원하기 어려운 성적(4.75)에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 4.75의 성적으로 유아교육학과에 지원하기 어렵다고 명시되어 있지만, 생성된 응답에서는 지원이 가능하다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 유아교육학과에 대한 지원 가능성에 대한 설명이 상충되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대한 논의를 포함하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 정보가 부정확합니다. 원본 텍스트에서 제시된 사실과 상충하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 정확성과 일관성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.7587389507257721</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 성적을 가지고 나군의 학생부종합전형에 지원하는 것은 가능합니다만, 유아교육학과의 경우 모집인원이 적고 경쟁률이 높기 때문에 성적이 조금 더 높은 편이 좋습니다.
+유아교육학과의 모집인원을 확인해보면 다음과 같습니다:
+- 미래융합대학 인문사회부문 부동산자산경영학부: 7명
+- 나군 학생부종합전형에서 유아교육학과로 지원하는 경우, 학업역량, 공동체역량, 전공적합성 등 다양한 평가 영역이 고려되므로 성적이 조금 더 높은 편이 좋습니다.
+4.75라는 성적을 가지고 지원한다면 서류평가에서 좋은 점수를 받는 것이 중요합니다. 특히 학업역량과 전공적합성 부분에서 강점을 보여주어야 합니다. 또한 면접에서도 자신의 지원동기와 학업계획, 전공적합성을 잘 설명하는 것이 필요합니다.
+더 자세한 정보나 도움이 필요하시다면 https://ipsi. deu. ac. kr/main. do를 방문해보시거나 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 제공하지만, 수능 4개 영역의 평균 등급과 관련된 구체적인 수치를 제공하지 않아 다소 불확실한 부분이 있습니다. 또한, 환산 등급과 관련된 정보가 다소 추정적이어서 정확성이 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있으며, 보육가정상담학과의 합격 가능성에 대한 논의가 일관되게 이어집니다. 그러나 일부 세부 사항에서 원본과의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 지원자의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정보가 추정적이며, 원본 텍스트의 구체적인 수치와 다를 수 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성에서 높은 점수를 받습니다. 그러나 사실성과 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.6190527399093468</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>4.16이라는 환산 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하시려는 계획은 좋은데, 정확한 합격 여부를 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **보육가정상담학과의 일반학생전형 평균 등급**: 보육가정상담학과의 일반학생전형에서 지원자의 환산등급이 평균 이상인지 확인해야 합니다.
+2. **표준 편차**: 표준 편차를 통해 지원자의 환산등급이 얼마나 평균과 차이나는지 파악할 수 있습니다.
+위의 데이터를 바탕으로 추정해보겠습니다:
+- 보육가정상담학과의 일반학생전형에서 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균은 373.50이고, 표준 편차는 56.83입니다.
+- 지원자의 환산등급이 4.16이라면, 이는 대략 370점 정도로 추정할 수 있습니다 (수능 점수와 등급의 변환은 각 대학에서 다르므로 정확한 변환 공식을 알고 있어야 합니다).
+370점은 평균 373.50보다 약간 낮습니다. 그러나 표준 편차가 56.83이므로, 이 정도 차이는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+따라서, 지원자의 환산등급이 평균을 밑돌았지만 표준 편차 내에 위치한다면, 충분한 경쟁력을 가진 것으로 보입니다. 하지만 최종 합격 여부는 입학사정관의 심사 결과와 지원자의 전체적인 성적 및 서류 등 여러 요소를 고려하여 결정됩니다.
+따라서, 정확한 답변을 위해서는 해당 대학에서 제공하는 자세한 정보를 확인하시거나, 입학처에 문의하시는 것이 좋습니다. 더 자세한 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확히 반영하고 있습니다. 그러나 소프트웨어공학부에 대한 정보는 추가적인 세부사항을 제공하지만, 원래 질문과는 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 지원 불가능성을 일관되게 언급하고 있지만, 소프트웨어공학부에 대한 정보는 원래 질문과의 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 지원 불가능성에 대한 정보를 제공하며, 소프트웨어공학부에 대한 정보도 포함되어 있어 관련성이 높습니다. 그러나 질문의 핵심에 대한 직접적인 답변이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 소프트웨어공학부에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 소프트웨어융합학과의 지원 불가능성을 정확히 반영하고 있으며, 소프트웨어공학부에 대한 정보도 사실에 기반하고 있습니다. 그러나 질문에 대한 직접적인 답변이 부족하여 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 유창성과 관련성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 소프트웨어공학부에 대한 정보가 추가되면서 약간의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.4709868628814722</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부가 신설되었으므로, 현재까지는 "소프트웨어융합학과"라는 명칭으로 지원할 수 없습니다. 대신 "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 지원 가능합니다.
+2024학년도에 소프트웨어공학부의 경우, 평균 등급을 보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 325.15
+- **영어 등급**: 평균 3.18
+따라서, 소프트웨어공학부로 지원하려면 이와 비슷한 수준의 점수를 받아야 합니다. 정확한 등급은 모집단위별로 다르므로, 해당 학과의 모집요강을 확인하시기 바랍니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비율을 60%와 40%로 언급하고 있으나, 원본 텍스트에서는 이러한 비율에 대한 언급이 없습니다. 따라서 일부 정보는 추가되었지만, 원본의 핵심 내용은 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 세부적인 내용을 추가했지만, 비율에 대한 정보가 원본에 없기 때문에 일관성이 떨어집니다. 그러나 전반적으로 원본의 주제를 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 답변으로서 매우 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 비율에 대한 언급이 원본에 없기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 추가적인 정보를 제공하지만, 비율에 대한 정보는 원본에 명시되어 있지 않아 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 세부적인 내용이 추가되어 있습니다. 그러나 비율에 대한 정보는 원본과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달됩니다. 다만, 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.6442075366466892</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가가 각각 60%와 40%의 비율로 반영되며, 특히 세특 내용은 서류평가에서 중요한 요소 중 하나입니다. 따라서 세특 내용을 잘 준비하는 것이 중요합니다.
+세특 내용에 대해선 다음과 같이 준비해야 합니다:
+1. **관련 활동 경험**: 지원자가 소프트웨어 분야에서 어떤 활동을 했는지 구체적으로 기재해야 합니다.
+2. **능력 및 특기사항**: 자신의 컴퓨터 프로그래밍 능력, 알고리즘 이해력 등과 관련된 세부적인 내용을 기재합니다.
+3. **프로젝트 경험**: 실제 소프트웨어 개발이나 프로젝트 참여 경험이 있다면 이를 자세히 기재해야 합니다.
+따라서, 서류 준비 시에는 세특 영역에서의 활동과 능력을 잘 보여주는 내용을 포함시켜야 합니다. 이는 면접에서도 자신의 전공적합성을 강조하는 데 도움이 됩니다.
+더 자세한 정보나 질문이 있으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급과 관련된 정보에서 오류가 있습니다. 원본 텍스트에서는 최초합격자의 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 합격자들의 평균 등급이 5.27이라고 잘못 언급하고 있습니다. 이는 사실과 다르며, 전체적인 사실성을 크게 저하시킵니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.08의 성적이 평균 등급과 비교적 근접하다고 언급되지만, 생성된 응답에서는 4.08이 평균보다 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 4.08의 성적이 최초합격 가능성에 미치는 영향에 대한 설명이 부족합니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 평균 등급에 대한 잘못된 정보로 인해 논리적 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 특히 평균 등급에 대한 잘못된 정보는 정확성을 심각하게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.8431690309178826</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격하는 것은 어렵다고 볼 수 있습니다.
+동의대학교 소프트웨어공학부의 경우, 지원 인원이 146명이고 모집 인원은 30명으로 경쟁률이 매우 높습니다. 평균적으로 합격자들의 수능 4개 영역 등급은 5.27이며, 가산점 포함 시 평균 점수는 399.96입니다.
+당신의 수능 4개 영역 등급이 4.08이라면, 이는 평균보다 상대적으로 낮습니다. 따라서 경쟁률이 높고 평균 합격 점수가 높은 동의대학교 소프트웨어공학부에 최초합격하는 것은 매우 어려울 것으로 예상됩니다.
+만약 확실한 결과를 얻기 위해서는, 해당 대학과 전형의 자세한 기준을 확인하거나, 입학처에 문의하시는 것이 좋습니다. 더 정확한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 평균 5등급이 지원 가능하다는 주장은 사실과 다릅니다. 원문에서는 합격 가능성을 확인하기 위해 최근 합격자 평균 등급이나 입시 결과를 참고해야 한다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 구체적인 합격 등급 정보가 없다고 명시하고 있는데, 생성된 응답은 평균 5등급이 충분히 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하고 있으나, 원문에서 요구하는 구체적인 합격 등급 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결성이 부족하여 일관성이 떨어집니다. 원문에서 제시한 정보와의 연관성이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 5등급이 지원 가능하다는 주장은 원문과 상충됩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받으며, 전반적으로 원문과의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.6487152821419758</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(소프트웨어융합학과)의 경우, 평균 5등급은 충분히 지원 가능합니다. 해당 학과의 수능 4개 영역 등급의 평균이 4.12로, 표준 편차가 0.32입니다. 따라서 평균 5등급은 상당히 높은 점수이며, 이는 경쟁률을 감안할 때 충분한 지원 자격을 갖추고 있습니다.
+만약 더 자세한 정보나 추가적인 조언이 필요하시다면, 관련 웹사이트를 방문해 보시거나 대학 관계자와 상담하는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 평균 점수와 표준 편차에 대한 언급이 원본 텍스트에 포함되어 있지 않으므로 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 점수와 표준 편차에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 주된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 약간의 주제 이탈이 발생합니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 원본 텍스트와의 연결이 약간 느슨합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하지만, 평균 점수와 표준 편차에 대한 정보가 추가되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 맥락 이탈이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.6107307081732493</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 동의대학교 공과대학 신소재공학과, 분자나노공학과 모집단위의 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합' 평균치인 271.64보다 높습니다. 그러나 동의대학교 공과대학 신소재공학과, 분자나노공학과 모집단위의 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합' 표준 편차인 19.52를 고려하면, 이는 상대적으로 낮은 점수입니다.
+따라서, 4.28이라는 점수로 동의대학교 공과대학 신소재공학과, 분자나노공학과에 합격할 확률이 높다고 볼 수 있습니다. 그러나 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 결과를 확인하기 위해서는 동의대학교에서 공개하는 최종 합격자 명단을 참조해야 합니다.
+만약 더 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 포함되어 있지만, 자기소개서가 필요 없다는 사실을 명확히 반영하지 않고 있습니다. 또한, 특정 상황에서 자기소개서가 필요할 수 있다는 언급은 원문과 일치하지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 특정 상황에서 필요할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원문에서 요구하는 핵심 질문에 대한 직접적인 답변이 부족합니다. 추가적인 정보는 있지만, 주제와의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 약해 응답이 일관되게 느껴지지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보를 포함하고 있습니다. 자기소개서가 필요 없다는 점을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.4708404837538809</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自我介绍信。对于一般学生入学考试（수능 일반학생전형），主要依据的是学生的学业成绩、学校生活记录等材料进行评估，通常不需要额外的自我介绍信。
+但是，如果在某些特定的情况下，比如提前就业型合同学科（조기취업형계약학과전형）中的面试环节中可能会有自我介绍的部分。因此，在准备这些考试时，请仔细阅读具体的招生简章和要求。
+如果有任何疑问或不确定的地方，可以访问以下网站获取更多信息：https://ipsi. deu. ac. kr/main. do
+希望这能帮到您！如果有其他问题也可以随时询问。</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 특정 데이터(예: 평균 등급 및 표준 편차)에 대한 언급이 부족합니다. 또한, "4.5라는 점수는 수능 영어 등급 점수가 반영된 점수입니다."라는 주장은 원본 텍스트에 명시된 내용과 일치하지 않으며, 이는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 특정 세부 사항(예: 평균 등급)에 대한 정보가 누락되어 있습니다. 또한, 원본 텍스트의 주제와는 다소 다른 방향으로 설명하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 추가 모집에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 특정 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 여러 요인을 설명하고 있지만, 원본 텍스트의 특정 사실(예: 평균 등급)에 대한 정확한 정보가 부족합니다. 또한, 수능 영어 등급 점수에 대한 주장은 사실과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 전달하고 있지만, 특정 세부 사항이 누락되어 있어 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.6988464232860958</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 영어 등급 점수가 반영된 점수입니다. 추가 모집에 들어갈 수 있는지 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 경쟁률**: 각 단과대학의 모집단위별로 지원 인원이 많고 적을 수 있으며, 이에 따라 경쟁률이 달라집니다. 예를 들어, 공과대학의 조선해양공학과는 12명 모집인 반면, 의생명공학과는 99명 모집합니다.
+2. **성적 산출방법**: 각 단과대학에서 수능 성적을 어떻게 산출하는지에 따라 달라질 수 있습니다. 예를 들어, 공과대학의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합을 사용합니다.
+3. **모집인원 및 지원인원**: 모집 인원이 많고 지원 인원이 적다면 경쟁률이 낮아져서 더 높은 확률로 합격할 수 있습니다. 반대로, 모집 인원이 적고 지원 인원이 많은 경우에는 경쟁률이 높아져서 합격 가능성은 낮아질 수 있습니다.
+4. **기타 요인**: 학생부 성적, 실기 점수 등 다른 평가 항목도 고려될 수 있습니다.
+따라서, 4.5라는 점수로 추가 모집에 들어갈 확률을 정확히 예측하기 위해서는 해당 단과대학의 모집단위별 경쟁률과 성적 산출 방법 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다.
+[https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 구체적인 정보를 제공하지 않고, 지원 자격에 대한 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있으며, 따라서 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 평균 등급에 대한 구체적인 수치를 제공하지만, 생성된 응답은 그러한 정보를 제공하지 않고 있습니다. 이로 인해 일관성 점수는 3으로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집 등급을 확인하는 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 수치 정보를 포함하지 않아 약간의 관련성 부족이 있습니다. 따라서 관련성 점수는 4로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창성 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다. 따라서 일관성 점수는 4로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치 정보를 누락하고 있으며, 이는 정확성에 영향을 미칩니다. 따라서 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 누락하고 있어 전반적인 품질 점수는 3으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있습니다. 그러나 구체적인 수치 정보를 포함하지 않아 약간의 의미적 적합성 부족이 있습니다. 따라서 의미적 적합성 점수는 4로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 원본 텍스트의 구체적인 정보가 부족하여 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6062433655654659</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 경우, 지원 자격에 대한 정보가 제공되지 않았습니다. 특정 학과의 정시 모집 등급을 확인하려면, 대학 입학처 웹사이트를 방문하여 최신 정보를 확인해보시는 것이 좋겠습니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교 입학처 웹사이트로 이동하실 수 있습니다. 해당 페이지에서 '정시 모집' 또는 '모집요강' 섹션을 찾아보시면, 신소재공학과의 정시 등급 정보를 확인할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 작년 신소재공학과의 평균 점수와 귀하의 점수에 대한 정보를 제공하고 있으며, 합격 가능성에 대한 언급도 포함되어 있습니다. 그러나 "정확히 447점으로 환산된 점수를 받는 것은 어렵다"는 부분은 다소 주관적이며, 명확한 근거가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "447점보다 약간 높았다"는 표현은 원본 텍스트의 "378.15점"과의 비교에서 다소 모호하게 느껴질 수 있습니다. 또한, 입시 조건의 변동 가능성에 대한 언급이 추가되어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 논의가 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "입시 조건이 변동될 수 있다"는 부분이 다소 갑작스럽게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "447점으로 환산된 점수를 받는 것은 어렵다"는 주관적인 해석이 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 주관적인 표현이 포함되어 있어 완전한 적절성은 다소 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.6365013261669346</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입시 조건에서 정확히 447점으로 환산된 점수를 받는 것은 어렵지만, 작년에 비슷한 점수로 합격했던 사례가 있다면 가능성을 고려해볼 수 있습니다. 
+현재 제공된 데이터에서는 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았습니다. 하지만, 입시 조건이 변동될 수 있으며, 지원자의 경쟁률이나 모집인원 등이 달라지면 결과가 달라질 수 있습니다.
+따라서, 작년에 비슷한 점수로 합격했던 사례가 있다면, 447점으로도 합격 가능성은 있으므로, 해당 정보를 참고하시고 지원을 고려해보시는 것이 좋겠습니다. 
+만약 더 자세한 정보나 조언이 필요하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시거나, 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 전형에 대한 정보가 부족하고, 성적에 대한 구체적인 비교가 명확하지 않다. 원문에서 제공된 평균 성적과 비교하는 대신, 일반적인 절차를 제안하고 있어 사실적 정확성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 성적 기준과 다소 일치하지만, 구체적인 수치나 비교가 부족하여 일관성이 떨어진다. 원문에서 제시된 평균 성적과의 비교가 명확하지 않다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 전형에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제시된 구체적인 성적 데이터와 비교하는 내용이 부족하다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안된 절차가 명확하게 나열되어 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 구체적인 성적 데이터와 비교하는 대신 일반적인 조언을 제공하고 있어 정확성이 떨어진다. 성적에 대한 구체적인 정보가 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 원문에서 제시된 구체적인 성적 데이터와의 비교가 부족하여 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 관련된 절차를 제안하고 있다. 그러나 원문에서 제공된 구체적인 성적 데이터와의 연관성이 부족하다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 제안된 절차가 명확하게 설명되어 있다. 다만, 일부 문장이 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5924095778271899</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2로 낮아진다고 하셨네요. 신소재공학과의 경우 학생부교과와 수능이 반영되는 전형으로 보입니다. 현재 제공된 정보만으로는 정확한 판단을 내리기 어렵습니다.
+신소재공학과 일반학생전형에 붙을 수 있는지 확인하기 위해서는 다음과 같은 절차를 따르시는 것이 좋겠습니다:
+1. **최종 등급 확인**: 현재의 성적을 최종 등급으로 변환해 보세요.
+2. **수능 최저 기준 확인**: 해당 전형의 수능 최저 기준을 확인하세요.
+3. **전형 요소 반영 비율 확인**: 학생부교과와 수능이 각각 어떤 비율로 반영되는지 확인하세요.
+만약에 4.1~4.2 등급대가 수능 최저 기준보다 낮다면, 학생부교과 성적이 높아야 합니다. 그러나 신소재공학과의 경우 학생부교과와 수능이 각각 50%씩 반영되는 전형이라면, 학생부교과 성적도 중요하게 작용할 것입니다.
+따라서, 정확한 판단을 위해서는 해당 대학의 최신 정보를 확인하시거나, 입시 상담 센터에 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 얻으실 수 있습니다.
+이런 절차를 통해 최종적으로 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 정확한 정보를 제공하지 않고 있으며, 평균 점수로 제시된 325.15는 원본 텍스트의 301.87과 다릅니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 평균 점수에 대한 정보가 상이하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 성적 정보를 정확히 반영하지 못하고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하는 데 어려움이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 평균 점수 정보가 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 원본의 수치와 일치하지 않는 점이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 제공된 정보의 정확성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7792272846524186</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 경우, 2024학년도 모집단위에 대한 자세한 정보는 제공되지 않았습니다. 하지만 동의대학교 ICT융합공과대학 인공지능학과의 수능 일반학생전형에 대한 평균 점수를 참고할 수 있습니다.
+ICT융합공과대학 인공지능학과의 경우, 2024학년도 모집단위에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **325.15**였습니다.
+이 정보를 참고하여 동의대학교 인공지능학과에 지원하는 데 도움을 받으실 수 있습니다. 만약 더 자세한 정보가 필요하시다면, 제공된 데이터를 바탕으로 추정하거나, 해당 대학의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평균 점수와 표준 편차에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 각 학과의 평균 점수와 표준 편차가 제공되었으나, 생성된 응답에서는 "평균: 433.52"와 "표준 편차: 5.25"라는 잘못된 수치를 사용하고 있습니다. 이는 원본 정보와 일치하지 않으며, 사실에 대한 왜곡이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 평균 점수와 표준 편차에 대한 잘못된 해석이 포함되어 있어 일관성이 떨어집니다. 원본 텍스트에서 제공된 각 학과의 성적 정보를 무시하고 다른 수치를 사용하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 충원 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 잘못된 수치를 사용하여 결론을 도출하고 있습니다. 따라서 관련성은 높지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 논리적 흐름은 대체로 유지되고 있으나, 잘못된 정보로 인해 결론이 신뢰할 수 없게 되어 일관성이 떨어집니다. 원본 텍스트의 정보와의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 평균 점수와 표준 편차에 대한 잘못된 수치가 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 품질 차원에서 응답이 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련된 내용을 다루고 있으나, 잘못된 수치로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 높지만, 신뢰성에 문제가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.6689784996918423</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 가지고 어떤 단과대학의 어떤 모집단위에서 충원이 가능한지 정확히 판단하기 위해서는 해당 단과대학 및 모집단위의 평균 점수와 표준 편차를 확인해야 합니다.
+제공된 데이터 중에서, "평균": 433.52, "표준 편차": 5.25라는 정보가 있습니다. 이는 특정 단과대학의 특정 모집단위에 대한 정보로 보입니다. 이 정보를 바탕으로 판단해보겠습니다.
+1. **평균 점수와 표준 편차 계산**:
+   - 평균 점수: 433.52
+   - 표준 편차: 5.25
+2. **추합 가능성 판단**:
+   - 현재 점수: 5.27 (이 점수는 수능 4개 영역 등급의 평균 점수로 보입니다.)
+   - 평균 점수와 비교: 5.27은 평균 점수인 433.52보다 약간 높습니다.
+   - 표준 편차를 고려하면, 현재 점수가 평균점수에서 약 1.0배의 표준 편차를 초과합니다.
+따라서, 이 점수로는 충원이 가능한 것으로 보입니다. 하지만, 다른 단과대학이나 모집단위에서는 다르게 평가될 수 있으므로, 해당 단과대학 및 모집단위의 정확한 평균 점수와 표준 편차를 확인하시기 바랍니다.
+더 자세한 정보나 추가 질문이 있다면, "https://ipsi.deu.ac.kr/main. do" 링크를 통해 확인해보시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 4.2라는 점수가 평균보다 높은 점수라는 점을 언급하고 있습니다. 그러나 추가적인 정보(예: 평균 국어 + 수학 + 탐구 점수, 표준 편차 등)는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 정확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 표준 변동성과 관련된 내용은 원본 텍스트에 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어공학부의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 정확한지 여부는 확인할 수 없습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 문제가 있어 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다. 따라서 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.5948746662341731</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 동의대학교 소프트웨어공학부에 지원하는 데 있어 좋은 점수일 수 있습니다. 하지만 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+동의대학교 소프트웨어공학부의 경우, 2024년도 모집에서 다음과 같은 정보가 주어졌습니다:
+- 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 325.15
+- 표준 편차: 6.53
+이 정보를 바탕으로, 4.2라는 점수는 평균보다 약간 높은 수치입니다. 그러나 표준 편차가 상대적으로 크기 때문에, 이 점수만으로 합격 확률을 정확히 예측하기는 어렵습니다.
+합격 가능성에 영향을 미칠 요인에는:
+1. 지원자의 전체 성적 평균
+2. 경쟁률
+3. 모집 인원과 지원 인원의 비율
+따라서, 4.2라는 점수만으로 합격 확률을 정확히 예측하기는 어렵습니다. 하지만 이 점수는 좋은 성적이므로, 합격 가능성은 높다고 볼 수 있습니다.
+추가적으로, 동의대학교 소프트웨어공학부에 지원하려면:
+1. 해당 모집군과 전형명을 확인해야 합니다.
+2. 지원 자격이 충족되어야 합니다 (예: 고교 유형별 지원 자격 등).
+3. 학생부 종합 평가 결과도 중요하게 작용할 수 있습니다.
+따라서, 정확한 합격 가능성 예측을 위해서는 동의대학교의 공식 웹사이트를 참조하거나, 대학 관계자에게 직접 문의하는 것이 가장 좋습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하지만, 3.92라는 성적이 합격 가능성이 높다는 원본 텍스트의 주장을 명확히 반영하지 않고 있습니다. 또한, 성적 산출 방법과 예시를 추가했지만, 원본의 핵심 정보를 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 3.92라는 성적이 합격 가능성이 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 일반 학생 전형에 대한 정보를 제공하며, 관련된 세부 사항을 다루고 있습니다. 그러나 원본 텍스트의 핵심 주제인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 성적 산출 방법과 예시를 제공하지만, 원본 텍스트의 핵심 사실인 3.92 성적의 합격 가능성에 대한 정확한 판단을 제공하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 주제를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 명확한 결론을 제시하지 않아 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.7212840515280382</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 화학환경공학부의 일반 학생 전형에 충분한 점수인지 확인하기 위해서는 해당 모집단위의 정원 내 모집 인원과 수능 성적 산출 방법, 그리고 성적 산출 예시를 고려해야 합니다.
+현재 제공된 정보로는 화학환경공학부의 정원 내 모집 인원이 36명이고, 일반 학생 전형의 수능 성적 산출 방법은 "국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수"입니다.
+성적 산출 예시를 보면 국어 104점, 수학(미적분) 108점, 영어 123점, 과탐(화학Ⅰ) 59점을 가진 학생의 총 점수는 (104 + 108 + 123 + 59) / 4 = 100.75점입니다.
+따라서 3.92라는 성적은 현재 제공된 정보로는 화학환경공학부의 일반 학생 전형에 충분한 점수인지 확실하지 않습니다. 정확한 판단을 위해서는 해당 모집단위의 최소 성적 기준이나 이전 년도의 입시 결과를 참고해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.25라는 점수가 상대적으로 높은 점수라고 언급하고 있지만, 동의대학교 화학환경공학부의 평균 점수에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 평균 점수가 276.61로 제시되었으나, 생성된 응답에서는 377.52로 잘못 기재되었습니다. 이로 인해 사실성과 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 경쟁률에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 일관성에 문제가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.25라는 점수에 대한 합격 가능성을 언급하고 있지만, 평균 점수에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 평균 점수에 대한 잘못된 정보가 의미 전달에 영향을 미칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.6599488162037254</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 상대적으로 높은 점수입니다. 하지만 동의대학교 화학환경공학부의 경쟁률과 평균 점수를 고려해야 합니다.
+화학환경공학부의 경우, 지원 인원이 많고 모집 인원이 적어 경쟁률이 높습니다. 2024학년도에 해당 학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 377.52입니다. 이는 4.25라는 점수보다 약간 낮습니다.
+따라서, 4.25의 점수로 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격할 확률은 높지만, 완벽히 보장된 것은 아닙니다. 경쟁률과 지원 인원이 많아 점수가 조금 더 높을 경우에도 충원되지 않을 가능성이 있습니다.
+결론적으로, 4.25의 점수로는 합격 가능성은 있지만 확실한 것은 아니므로, 최종 결과를 확인하기 위해 동의대학교 입학처 웹사이트나 전화 문의 등을 통해 확인하는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.2라는 점수에 대한 판단을 내리기 어렵다고 언급하고 있지만, 원본 텍스트에서는 4.2 점수가 영화학과에 합격할 가능성이 있다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 다른 학과의 평균 점수를 언급하면서 4.2 점수에 대한 판단을 다르게 하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 4.2 점수에 대한 판단을 다루고 있으며, 관련된 다른 학과의 평균 점수를 언급하고 있습니다. 그러나 원본 텍스트의 특정 학과에 대한 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 평균 점수를 언급하면서 논리적으로 연결되지만, 원본 텍스트의 주제와는 다소 동떨어져 있어 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있으며, 4.2 점수에 대한 판단이 잘못된 방향으로 진행되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.5144288911371522</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 판단하기 어렵습니다. 각 학과의 경쟁률과 평균 점수가 중요합니다. 예를 들어, "인문사회과학대학 사회복지학과"의 경우 평균 점수가 4.69이고 표준 편차가 0.23이므로 4.2는 상당히 낮은 점수입니다. 이 학과에서는 경쟁률이 높아서 4.2로는 충분히 합격할 확률이 낮을 수 있습니다.
+반면에 "상경대학 경영학과"의 경우 평균 점수가 4.69이고 표준 편차가 0.22이므로 4.2는 조금 더 높은 점수입니다. 이 학과에서는 경쟁률이 높지 않아서 4.2로도 충분히 합격할 수 있는 가능성은 있습니다.
+따라서, 정확한 판단을 위해서는 해당 학과의 평균 점수와 표준 편차를 확인하고, 지원자의 점수가 평균보다 얼마나 떨어져 있는지 보아야 합니다. 또한 경쟁률도 고려해야 합니다.
+만약 자세한 정보가 필요하다면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.9108524155877427</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 참여자에게 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
